--- a/Trabalhos/T2 - Série Discreta de Fourier/Parte 2/Dados.xlsx
+++ b/Trabalhos/T2 - Série Discreta de Fourier/Parte 2/Dados.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guisa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mauabr-my.sharepoint.com/personal/19_00012-0_maua_br/Documents/Engenharia 3ºano/ECM307-Sistemas-e-Sinais/Trabalhos/T2 - Série Discreta de Fourier/Parte 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A9EDB3-797E-432B-BCC0-7774F6BBD098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{04A9EDB3-797E-432B-BCC0-7774F6BBD098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11E889FD-F452-4156-B35F-6B51AF8317A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="96">
   <si>
     <t>f1</t>
   </si>
@@ -300,9 +309,6 @@
     <t>19.00345-7</t>
   </si>
   <si>
-    <t>2283.35</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -359,9 +365,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,15 +649,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H526"/>
+  <dimension ref="A1:K526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K504" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -673,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>202.7</v>
       </c>
@@ -695,8 +706,9 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>230.7</v>
       </c>
@@ -718,8 +730,9 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>157.19999999999999</v>
       </c>
@@ -741,8 +754,9 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>122.8</v>
       </c>
@@ -764,8 +778,9 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>138.9</v>
       </c>
@@ -787,8 +802,9 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>131</v>
       </c>
@@ -810,8 +826,9 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>218.4</v>
       </c>
@@ -833,8 +850,9 @@
       <c r="G8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>229.3</v>
       </c>
@@ -856,8 +874,9 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>226.9</v>
       </c>
@@ -879,8 +898,9 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>141.5</v>
       </c>
@@ -902,8 +922,9 @@
       <c r="G11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>146.9</v>
       </c>
@@ -925,8 +946,9 @@
       <c r="G12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>132.6</v>
       </c>
@@ -948,8 +970,9 @@
       <c r="G13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>131.19999999999999</v>
       </c>
@@ -971,8 +994,9 @@
       <c r="G14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>136.4</v>
       </c>
@@ -994,8 +1018,9 @@
       <c r="G15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>129.69999999999999</v>
       </c>
@@ -1017,8 +1042,9 @@
       <c r="G16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>116.5</v>
       </c>
@@ -1040,8 +1066,9 @@
       <c r="G17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>120.64</v>
       </c>
@@ -1063,8 +1090,9 @@
       <c r="G18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>138.52000000000001</v>
       </c>
@@ -1086,8 +1114,9 @@
       <c r="G19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>104.97</v>
       </c>
@@ -1109,8 +1138,9 @@
       <c r="G20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>148.06</v>
       </c>
@@ -1132,8 +1162,9 @@
       <c r="G21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>131.62</v>
       </c>
@@ -1155,8 +1186,9 @@
       <c r="G22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>204</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="G23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>204</v>
       </c>
@@ -1201,8 +1234,9 @@
       <c r="G24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>268</v>
       </c>
@@ -1224,8 +1258,9 @@
       <c r="G25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>167.93</v>
       </c>
@@ -1247,8 +1282,9 @@
       <c r="G26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>153.69999999999999</v>
       </c>
@@ -1270,8 +1306,9 @@
       <c r="G27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>153.69999999999999</v>
       </c>
@@ -1293,8 +1330,9 @@
       <c r="G28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>162.09</v>
       </c>
@@ -1316,8 +1354,9 @@
       <c r="G29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>179.12</v>
       </c>
@@ -1339,8 +1378,9 @@
       <c r="G30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>106.39</v>
       </c>
@@ -1362,8 +1402,9 @@
       <c r="G31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>111.84</v>
       </c>
@@ -1385,8 +1426,9 @@
       <c r="G32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>128.75</v>
       </c>
@@ -1408,8 +1450,9 @@
       <c r="G33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>118.27</v>
       </c>
@@ -1431,8 +1474,9 @@
       <c r="G34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>123.16</v>
       </c>
@@ -1454,8 +1498,9 @@
       <c r="G35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>129.27000000000001</v>
       </c>
@@ -1477,8 +1522,9 @@
       <c r="G36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>128.97</v>
       </c>
@@ -1500,8 +1546,9 @@
       <c r="G37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>129.19999999999999</v>
       </c>
@@ -1523,8 +1570,9 @@
       <c r="G38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>228.3</v>
       </c>
@@ -1546,8 +1594,9 @@
       <c r="G39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>120.15</v>
       </c>
@@ -1569,8 +1618,9 @@
       <c r="G40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>240</v>
       </c>
@@ -1592,8 +1642,9 @@
       <c r="G41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>207</v>
       </c>
@@ -1615,8 +1666,9 @@
       <c r="G42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>255</v>
       </c>
@@ -1638,8 +1690,9 @@
       <c r="G43" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>215</v>
       </c>
@@ -1661,8 +1714,9 @@
       <c r="G44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>210</v>
       </c>
@@ -1684,8 +1738,9 @@
       <c r="G45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>210</v>
       </c>
@@ -1707,8 +1762,9 @@
       <c r="G46" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>106</v>
       </c>
@@ -1730,8 +1786,9 @@
       <c r="G47" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>105</v>
       </c>
@@ -1753,8 +1810,9 @@
       <c r="G48" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>106</v>
       </c>
@@ -1776,8 +1834,9 @@
       <c r="G49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>125</v>
       </c>
@@ -1799,8 +1858,9 @@
       <c r="G50" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>105</v>
       </c>
@@ -1822,8 +1882,9 @@
       <c r="G51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>115</v>
       </c>
@@ -1845,8 +1906,9 @@
       <c r="G52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>129.5</v>
       </c>
@@ -1868,8 +1930,9 @@
       <c r="G53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>134.1</v>
       </c>
@@ -1891,8 +1954,9 @@
       <c r="G54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>61.2</v>
       </c>
@@ -1914,8 +1978,9 @@
       <c r="G55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>170.8</v>
       </c>
@@ -1937,8 +2002,9 @@
       <c r="G56" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>144.69999999999999</v>
       </c>
@@ -1960,8 +2026,9 @@
       <c r="G57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>166.9</v>
       </c>
@@ -1983,8 +2050,9 @@
       <c r="G58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>108.6</v>
       </c>
@@ -2006,8 +2074,9 @@
       <c r="G59" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>112.1</v>
       </c>
@@ -2029,8 +2098,9 @@
       <c r="G60" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>109.8</v>
       </c>
@@ -2052,8 +2122,9 @@
       <c r="G61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>135.56</v>
       </c>
@@ -2075,8 +2146,9 @@
       <c r="G62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>140.65</v>
       </c>
@@ -2098,8 +2170,9 @@
       <c r="G63" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>132.35</v>
       </c>
@@ -2121,8 +2194,9 @@
       <c r="G64" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>110.4</v>
       </c>
@@ -2144,8 +2218,9 @@
       <c r="G65" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>105.9</v>
       </c>
@@ -2167,8 +2242,9 @@
       <c r="G66" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>99.7</v>
       </c>
@@ -2190,8 +2266,9 @@
       <c r="G67" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>115.1</v>
       </c>
@@ -2213,8 +2290,9 @@
       <c r="G68" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>125.03</v>
       </c>
@@ -2236,8 +2314,9 @@
       <c r="G69" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125.1</v>
       </c>
@@ -2259,8 +2338,9 @@
       <c r="G70" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>267</v>
       </c>
@@ -2282,8 +2362,9 @@
       <c r="G71" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>275.8</v>
       </c>
@@ -2305,8 +2386,9 @@
       <c r="G72" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>261.2</v>
       </c>
@@ -2328,8 +2410,9 @@
       <c r="G73" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>165</v>
       </c>
@@ -2351,8 +2434,9 @@
       <c r="G74" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>222</v>
       </c>
@@ -2374,8 +2458,9 @@
       <c r="G75" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>115</v>
       </c>
@@ -2397,8 +2482,9 @@
       <c r="G76" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>102</v>
       </c>
@@ -2420,8 +2506,9 @@
       <c r="G77" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>130</v>
       </c>
@@ -2443,8 +2530,9 @@
       <c r="G78" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>115</v>
       </c>
@@ -2466,8 +2554,9 @@
       <c r="G79" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>207</v>
       </c>
@@ -2489,8 +2578,9 @@
       <c r="G80" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>205</v>
       </c>
@@ -2512,8 +2602,9 @@
       <c r="G81" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>211</v>
       </c>
@@ -2535,8 +2626,9 @@
       <c r="G82" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>155</v>
       </c>
@@ -2558,8 +2650,9 @@
       <c r="G83" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>152</v>
       </c>
@@ -2581,8 +2674,9 @@
       <c r="G84" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>163</v>
       </c>
@@ -2604,8 +2698,9 @@
       <c r="G85" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>175</v>
       </c>
@@ -2627,8 +2722,9 @@
       <c r="G86" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>169</v>
       </c>
@@ -2650,8 +2746,9 @@
       <c r="G87" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>184</v>
       </c>
@@ -2673,8 +2770,9 @@
       <c r="G88" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>202</v>
       </c>
@@ -2696,8 +2794,9 @@
       <c r="G89" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>202</v>
       </c>
@@ -2719,8 +2818,9 @@
       <c r="G90" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>111</v>
       </c>
@@ -2742,8 +2842,9 @@
       <c r="G91" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>225</v>
       </c>
@@ -2765,8 +2866,9 @@
       <c r="G92" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>231</v>
       </c>
@@ -2788,8 +2890,9 @@
       <c r="G93" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>228</v>
       </c>
@@ -2811,8 +2914,9 @@
       <c r="G94" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>158</v>
       </c>
@@ -2834,8 +2938,9 @@
       <c r="G95" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>166</v>
       </c>
@@ -2857,8 +2962,9 @@
       <c r="G96" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>174</v>
       </c>
@@ -2880,8 +2986,9 @@
       <c r="G97" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>254</v>
       </c>
@@ -2903,8 +3010,9 @@
       <c r="G98" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>232</v>
       </c>
@@ -2926,8 +3034,9 @@
       <c r="G99" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>254</v>
       </c>
@@ -2949,8 +3058,9 @@
       <c r="G100" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>114.6</v>
       </c>
@@ -2972,8 +3082,9 @@
       <c r="G101" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>127.8</v>
       </c>
@@ -2995,8 +3106,9 @@
       <c r="G102" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>122.5</v>
       </c>
@@ -3018,8 +3130,9 @@
       <c r="G103" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>150.80000000000001</v>
       </c>
@@ -3041,8 +3154,9 @@
       <c r="G104" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>153.69999999999999</v>
       </c>
@@ -3064,8 +3178,9 @@
       <c r="G105" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>168.5</v>
       </c>
@@ -3087,8 +3202,9 @@
       <c r="G106" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>141.5</v>
       </c>
@@ -3110,8 +3226,9 @@
       <c r="G107" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>135.69999999999999</v>
       </c>
@@ -3133,8 +3250,9 @@
       <c r="G108" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>136.4</v>
       </c>
@@ -3156,8 +3274,9 @@
       <c r="G109" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>103.1</v>
       </c>
@@ -3179,8 +3298,9 @@
       <c r="G110" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>120.2</v>
       </c>
@@ -3202,8 +3322,9 @@
       <c r="G111" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>130.69999999999999</v>
       </c>
@@ -3225,8 +3346,9 @@
       <c r="G112" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>170.4</v>
       </c>
@@ -3248,8 +3370,9 @@
       <c r="G113" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>233</v>
       </c>
@@ -3271,8 +3394,9 @@
       <c r="G114" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>229.7</v>
       </c>
@@ -3294,8 +3418,9 @@
       <c r="G115" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>130.83000000000001</v>
       </c>
@@ -3317,8 +3442,9 @@
       <c r="G116" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>122.26</v>
       </c>
@@ -3340,8 +3466,9 @@
       <c r="G117" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116.97</v>
       </c>
@@ -3363,8 +3490,9 @@
       <c r="G118" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>122.6</v>
       </c>
@@ -3386,8 +3514,9 @@
       <c r="G119" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>136.19999999999999</v>
       </c>
@@ -3409,8 +3538,9 @@
       <c r="G120" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>279.5</v>
       </c>
@@ -3432,8 +3562,9 @@
       <c r="G121" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>109.84</v>
       </c>
@@ -3455,8 +3586,9 @@
       <c r="G122" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>104.59</v>
       </c>
@@ -3478,8 +3610,9 @@
       <c r="G123" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>113.37</v>
       </c>
@@ -3501,8 +3634,9 @@
       <c r="G124" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>161.83000000000001</v>
       </c>
@@ -3524,8 +3658,9 @@
       <c r="G125" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>165.9</v>
       </c>
@@ -3547,8 +3682,9 @@
       <c r="G126" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>182.16</v>
       </c>
@@ -3570,8 +3706,9 @@
       <c r="G127" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>109.79</v>
       </c>
@@ -3593,8 +3730,9 @@
       <c r="G128" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>184.45</v>
       </c>
@@ -3616,8 +3754,9 @@
       <c r="G129" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>108.5</v>
       </c>
@@ -3639,8 +3778,9 @@
       <c r="G130" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>117.87</v>
       </c>
@@ -3662,8 +3802,9 @@
       <c r="G131" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>111.67</v>
       </c>
@@ -3685,8 +3826,9 @@
       <c r="G132" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132.97999999999999</v>
       </c>
@@ -3708,8 +3850,9 @@
       <c r="G133" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>128.07</v>
       </c>
@@ -3731,8 +3874,9 @@
       <c r="G134" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>130.6</v>
       </c>
@@ -3754,8 +3898,9 @@
       <c r="G135" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136.57</v>
       </c>
@@ -3777,8 +3922,9 @@
       <c r="G136" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>123.8</v>
       </c>
@@ -3800,8 +3946,9 @@
       <c r="G137" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>116.8</v>
       </c>
@@ -3823,8 +3970,9 @@
       <c r="G138" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>130.5</v>
       </c>
@@ -3846,8 +3994,9 @@
       <c r="G139" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>118</v>
       </c>
@@ -3869,8 +4018,9 @@
       <c r="G140" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>115.52</v>
       </c>
@@ -3892,8 +4042,9 @@
       <c r="G141" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>114.21</v>
       </c>
@@ -3915,8 +4066,9 @@
       <c r="G142" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>136</v>
       </c>
@@ -3938,8 +4090,9 @@
       <c r="G143" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>267</v>
       </c>
@@ -3961,8 +4114,9 @@
       <c r="G144" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>160</v>
       </c>
@@ -3984,8 +4138,9 @@
       <c r="G145" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>105</v>
       </c>
@@ -4007,8 +4162,9 @@
       <c r="G146" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K146" s="2"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>110</v>
       </c>
@@ -4030,8 +4186,9 @@
       <c r="G147" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>110</v>
       </c>
@@ -4053,8 +4210,9 @@
       <c r="G148" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>106</v>
       </c>
@@ -4076,8 +4234,9 @@
       <c r="G149" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>202</v>
       </c>
@@ -4099,8 +4258,9 @@
       <c r="G150" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>106</v>
       </c>
@@ -4122,8 +4282,9 @@
       <c r="G151" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>105</v>
       </c>
@@ -4145,8 +4306,9 @@
       <c r="G152" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K152" s="2"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>105</v>
       </c>
@@ -4168,8 +4330,9 @@
       <c r="G153" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K153" s="2"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>105</v>
       </c>
@@ -4191,8 +4354,9 @@
       <c r="G154" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>138.19999999999999</v>
       </c>
@@ -4214,8 +4378,9 @@
       <c r="G155" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>138.1</v>
       </c>
@@ -4237,8 +4402,9 @@
       <c r="G156" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K156" s="2"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>140</v>
       </c>
@@ -4260,8 +4426,9 @@
       <c r="G157" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K157" s="2"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>184.6</v>
       </c>
@@ -4283,8 +4450,9 @@
       <c r="G158" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K158" s="2"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>185.4</v>
       </c>
@@ -4306,8 +4474,9 @@
       <c r="G159" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K159" s="2"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>180.4</v>
       </c>
@@ -4329,8 +4498,9 @@
       <c r="G160" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K160" s="2"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>107.4</v>
       </c>
@@ -4352,8 +4522,9 @@
       <c r="G161" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K161" s="2"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>112.9</v>
       </c>
@@ -4375,8 +4546,9 @@
       <c r="G162" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>118.3</v>
       </c>
@@ -4398,8 +4570,9 @@
       <c r="G163" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>142.46</v>
       </c>
@@ -4421,8 +4594,9 @@
       <c r="G164" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>138.47</v>
       </c>
@@ -4444,8 +4618,9 @@
       <c r="G165" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>142.25</v>
       </c>
@@ -4467,8 +4642,9 @@
       <c r="G166" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>99.6</v>
       </c>
@@ -4490,8 +4666,9 @@
       <c r="G167" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>98.7</v>
       </c>
@@ -4513,8 +4690,9 @@
       <c r="G168" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>99.6</v>
       </c>
@@ -4536,8 +4714,9 @@
       <c r="G169" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K169" s="2"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>297.89999999999998</v>
       </c>
@@ -4559,8 +4738,9 @@
       <c r="G170" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>297.69</v>
       </c>
@@ -4582,8 +4762,9 @@
       <c r="G171" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>121.67</v>
       </c>
@@ -4605,8 +4786,9 @@
       <c r="G172" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>115.1</v>
       </c>
@@ -4628,8 +4810,9 @@
       <c r="G173" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>125.3</v>
       </c>
@@ -4651,8 +4834,9 @@
       <c r="G174" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>105.03</v>
       </c>
@@ -4674,8 +4858,9 @@
       <c r="G175" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>342.7</v>
       </c>
@@ -4697,8 +4882,9 @@
       <c r="G176" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K176" s="2"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>377.8</v>
       </c>
@@ -4720,8 +4906,9 @@
       <c r="G177" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>100.6</v>
       </c>
@@ -4743,8 +4930,9 @@
       <c r="G178" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>213</v>
       </c>
@@ -4766,8 +4954,9 @@
       <c r="G179" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>150</v>
       </c>
@@ -4789,8 +4978,9 @@
       <c r="G180" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>217</v>
       </c>
@@ -4812,8 +5002,9 @@
       <c r="G181" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>111</v>
       </c>
@@ -4835,8 +5026,9 @@
       <c r="G182" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>129</v>
       </c>
@@ -4858,8 +5050,9 @@
       <c r="G183" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>103</v>
       </c>
@@ -4881,8 +5074,9 @@
       <c r="G184" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>107</v>
       </c>
@@ -4904,8 +5098,9 @@
       <c r="G185" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>109</v>
       </c>
@@ -4927,8 +5122,9 @@
       <c r="G186" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>106</v>
       </c>
@@ -4950,8 +5146,9 @@
       <c r="G187" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>127</v>
       </c>
@@ -4973,8 +5170,9 @@
       <c r="G188" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>149</v>
       </c>
@@ -4996,8 +5194,9 @@
       <c r="G189" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>132</v>
       </c>
@@ -5019,8 +5218,9 @@
       <c r="G190" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>379</v>
       </c>
@@ -5042,8 +5242,9 @@
       <c r="G191" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>358</v>
       </c>
@@ -5065,8 +5266,9 @@
       <c r="G192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>368</v>
       </c>
@@ -5088,8 +5290,9 @@
       <c r="G193" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>126</v>
       </c>
@@ -5111,8 +5314,9 @@
       <c r="G194" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>370</v>
       </c>
@@ -5134,8 +5338,9 @@
       <c r="G195" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>234</v>
       </c>
@@ -5157,8 +5362,9 @@
       <c r="G196" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>212</v>
       </c>
@@ -5180,8 +5386,9 @@
       <c r="G197" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>228</v>
       </c>
@@ -5203,8 +5410,9 @@
       <c r="G198" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K198" s="2"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>227</v>
       </c>
@@ -5226,8 +5434,9 @@
       <c r="G199" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>151</v>
       </c>
@@ -5249,8 +5458,9 @@
       <c r="G200" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K200" s="2"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>172</v>
       </c>
@@ -5272,8 +5482,9 @@
       <c r="G201" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K201" s="2"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>150</v>
       </c>
@@ -5295,8 +5506,9 @@
       <c r="G202" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K202" s="2"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>145.69999999999999</v>
       </c>
@@ -5318,8 +5530,9 @@
       <c r="G203" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K203" s="2"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>131.19999999999999</v>
       </c>
@@ -5341,8 +5554,9 @@
       <c r="G204" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K204" s="2"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>134.1</v>
       </c>
@@ -5364,8 +5578,9 @@
       <c r="G205" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K205" s="2"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>243</v>
       </c>
@@ -5387,8 +5602,9 @@
       <c r="G206" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K206" s="2"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>243</v>
       </c>
@@ -5410,8 +5626,9 @@
       <c r="G207" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K207" s="2"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>243</v>
       </c>
@@ -5433,8 +5650,9 @@
       <c r="G208" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K208" s="2"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>164.6</v>
       </c>
@@ -5456,8 +5674,9 @@
       <c r="G209" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K209" s="2"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>158.30000000000001</v>
       </c>
@@ -5479,8 +5698,9 @@
       <c r="G210" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K210" s="2"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>166.4</v>
       </c>
@@ -5502,8 +5722,9 @@
       <c r="G211" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K211" s="2"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>139</v>
       </c>
@@ -5514,7 +5735,7 @@
         <v>2699.7</v>
       </c>
       <c r="D212" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E212" t="s">
         <v>8</v>
@@ -5525,8 +5746,9 @@
       <c r="G212" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K212" s="2"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>146</v>
       </c>
@@ -5537,7 +5759,7 @@
         <v>2715.9</v>
       </c>
       <c r="D213" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
@@ -5548,8 +5770,9 @@
       <c r="G213" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K213" s="2"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>140.80000000000001</v>
       </c>
@@ -5560,7 +5783,7 @@
         <v>2721.7</v>
       </c>
       <c r="D214" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E214" t="s">
         <v>8</v>
@@ -5571,8 +5794,9 @@
       <c r="G214" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K214" s="2"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>211.8</v>
       </c>
@@ -5583,7 +5807,7 @@
         <v>1953</v>
       </c>
       <c r="D215" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E215" t="s">
         <v>8</v>
@@ -5594,8 +5818,9 @@
       <c r="G215" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K215" s="2"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>162.69999999999999</v>
       </c>
@@ -5606,7 +5831,7 @@
         <v>1898</v>
       </c>
       <c r="D216" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E216" t="s">
         <v>8</v>
@@ -5617,8 +5842,9 @@
       <c r="G216" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K216" s="2"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>147.1</v>
       </c>
@@ -5629,7 +5855,7 @@
         <v>1953</v>
       </c>
       <c r="D217" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E217" t="s">
         <v>8</v>
@@ -5640,8 +5866,9 @@
       <c r="G217" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K217" s="2"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>264.5</v>
       </c>
@@ -5652,7 +5879,7 @@
         <v>3130.4</v>
       </c>
       <c r="D218" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E218" t="s">
         <v>8</v>
@@ -5663,8 +5890,9 @@
       <c r="G218" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K218" s="2"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>270</v>
       </c>
@@ -5675,7 +5903,7 @@
         <v>3247.3</v>
       </c>
       <c r="D219" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E219" t="s">
         <v>8</v>
@@ -5686,8 +5914,9 @@
       <c r="G219" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K219" s="2"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>261</v>
       </c>
@@ -5698,7 +5927,7 @@
         <v>3154.9</v>
       </c>
       <c r="D220" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E220" t="s">
         <v>8</v>
@@ -5709,8 +5938,9 @@
       <c r="G220" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K220" s="2"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>134.61000000000001</v>
       </c>
@@ -5721,7 +5951,7 @@
         <v>2000</v>
       </c>
       <c r="D221" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E221" t="s">
         <v>8</v>
@@ -5732,19 +5962,20 @@
       <c r="G221" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K221" s="2"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>256.43</v>
       </c>
       <c r="B222">
         <v>885.21</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222">
+        <v>2283.35</v>
+      </c>
+      <c r="D222" t="s">
         <v>91</v>
-      </c>
-      <c r="D222" t="s">
-        <v>92</v>
       </c>
       <c r="E222" t="s">
         <v>8</v>
@@ -5755,8 +5986,9 @@
       <c r="G222" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K222" s="2"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>264.85000000000002</v>
       </c>
@@ -5767,7 +5999,7 @@
         <v>2304.6999999999998</v>
       </c>
       <c r="D223" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -5778,8 +6010,9 @@
       <c r="G223" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K223" s="2"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>158.4</v>
       </c>
@@ -5790,7 +6023,7 @@
         <v>3532.4</v>
       </c>
       <c r="D224" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
@@ -5801,8 +6034,9 @@
       <c r="G224" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K224" s="2"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>161.5</v>
       </c>
@@ -5813,7 +6047,7 @@
         <v>3239.6</v>
       </c>
       <c r="D225" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E225" t="s">
         <v>8</v>
@@ -5824,8 +6058,9 @@
       <c r="G225" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K225" s="2"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>170.3</v>
       </c>
@@ -5836,7 +6071,7 @@
         <v>3065</v>
       </c>
       <c r="D226" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -5847,8 +6082,9 @@
       <c r="G226" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K226" s="2"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>239.09</v>
       </c>
@@ -5859,7 +6095,7 @@
         <v>2140</v>
       </c>
       <c r="D227" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E227" t="s">
         <v>8</v>
@@ -5870,8 +6106,9 @@
       <c r="G227" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K227" s="2"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>126.84</v>
       </c>
@@ -5882,7 +6119,7 @@
         <v>2445.1999999999998</v>
       </c>
       <c r="D228" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E228" t="s">
         <v>8</v>
@@ -5893,8 +6130,9 @@
       <c r="G228" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K228" s="2"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>108.31</v>
       </c>
@@ -5905,7 +6143,7 @@
         <v>3174.1</v>
       </c>
       <c r="D229" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E229" t="s">
         <v>8</v>
@@ -5916,8 +6154,9 @@
       <c r="G229" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K229" s="2"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>217.74</v>
       </c>
@@ -5928,7 +6167,7 @@
         <v>3176.3</v>
       </c>
       <c r="D230" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E230" t="s">
         <v>8</v>
@@ -5939,8 +6178,9 @@
       <c r="G230" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K230" s="2"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>196.39</v>
       </c>
@@ -5951,7 +6191,7 @@
         <v>3170.8</v>
       </c>
       <c r="D231" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E231" t="s">
         <v>8</v>
@@ -5962,8 +6202,9 @@
       <c r="G231" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K231" s="2"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>200.46</v>
       </c>
@@ -5974,7 +6215,7 @@
         <v>3172.8</v>
       </c>
       <c r="D232" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E232" t="s">
         <v>8</v>
@@ -5985,8 +6226,9 @@
       <c r="G232" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K232" s="2"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>184.55</v>
       </c>
@@ -5997,7 +6239,7 @@
         <v>2102.11</v>
       </c>
       <c r="D233" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E233" t="s">
         <v>8</v>
@@ -6008,8 +6250,9 @@
       <c r="G233" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K233" s="2"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>182.57</v>
       </c>
@@ -6020,7 +6263,7 @@
         <v>2206.9</v>
       </c>
       <c r="D234" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E234" t="s">
         <v>8</v>
@@ -6031,8 +6274,9 @@
       <c r="G234" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K234" s="2"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>192.76</v>
       </c>
@@ -6043,7 +6287,7 @@
         <v>2208.85</v>
       </c>
       <c r="D235" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E235" t="s">
         <v>8</v>
@@ -6054,8 +6298,9 @@
       <c r="G235" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>128.38</v>
       </c>
@@ -6066,7 +6311,7 @@
         <v>2766.6</v>
       </c>
       <c r="D236" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
@@ -6077,8 +6322,9 @@
       <c r="G236" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K236" s="2"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>135.4</v>
       </c>
@@ -6089,7 +6335,7 @@
         <v>2772.6</v>
       </c>
       <c r="D237" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E237" t="s">
         <v>8</v>
@@ -6100,8 +6346,9 @@
       <c r="G237" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K237" s="2"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>122.28</v>
       </c>
@@ -6112,7 +6359,7 @@
         <v>2759.5</v>
       </c>
       <c r="D238" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E238" t="s">
         <v>8</v>
@@ -6123,8 +6370,9 @@
       <c r="G238" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K238" s="2"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>305.38</v>
       </c>
@@ -6135,7 +6383,7 @@
         <v>2769.65</v>
       </c>
       <c r="D239" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E239" t="s">
         <v>8</v>
@@ -6146,8 +6394,9 @@
       <c r="G239" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K239" s="2"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>305.77999999999997</v>
       </c>
@@ -6158,7 +6407,7 @@
         <v>3394.19</v>
       </c>
       <c r="D240" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E240" t="s">
         <v>8</v>
@@ -6169,8 +6418,9 @@
       <c r="G240" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K240" s="2"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>293.37</v>
       </c>
@@ -6181,7 +6431,7 @@
         <v>3202.16</v>
       </c>
       <c r="D241" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E241" t="s">
         <v>8</v>
@@ -6192,8 +6442,9 @@
       <c r="G241" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K241" s="2"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>295.8</v>
       </c>
@@ -6204,7 +6455,7 @@
         <v>2941.1</v>
       </c>
       <c r="D242" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E242" t="s">
         <v>8</v>
@@ -6215,8 +6466,9 @@
       <c r="G242" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K242" s="2"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>127.1</v>
       </c>
@@ -6227,7 +6479,7 @@
         <v>2190.1</v>
       </c>
       <c r="D243" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E243" t="s">
         <v>8</v>
@@ -6238,8 +6490,9 @@
       <c r="G243" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K243" s="2"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>132.30000000000001</v>
       </c>
@@ -6250,7 +6503,7 @@
         <v>3118.5</v>
       </c>
       <c r="D244" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E244" t="s">
         <v>8</v>
@@ -6261,8 +6514,9 @@
       <c r="G244" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K244" s="2"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>127.21</v>
       </c>
@@ -6273,7 +6527,7 @@
         <v>2555.61</v>
       </c>
       <c r="D245" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
@@ -6284,8 +6538,9 @@
       <c r="G245" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K245" s="2"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>270.18</v>
       </c>
@@ -6296,7 +6551,7 @@
         <v>2826.46</v>
       </c>
       <c r="D246" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E246" t="s">
         <v>8</v>
@@ -6307,8 +6562,9 @@
       <c r="G246" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>263.04000000000002</v>
       </c>
@@ -6319,7 +6575,7 @@
         <v>2902.71</v>
       </c>
       <c r="D247" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E247" t="s">
         <v>8</v>
@@ -6330,8 +6586,9 @@
       <c r="G247" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>308</v>
       </c>
@@ -6342,7 +6599,7 @@
         <v>1971</v>
       </c>
       <c r="D248" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E248" t="s">
         <v>8</v>
@@ -6353,8 +6610,9 @@
       <c r="G248" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K248" s="2"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>311</v>
       </c>
@@ -6365,7 +6623,7 @@
         <v>2012</v>
       </c>
       <c r="D249" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E249" t="s">
         <v>8</v>
@@ -6376,8 +6634,9 @@
       <c r="G249" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K249" s="2"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>328</v>
       </c>
@@ -6388,7 +6647,7 @@
         <v>1980</v>
       </c>
       <c r="D250" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E250" t="s">
         <v>8</v>
@@ -6399,8 +6658,9 @@
       <c r="G250" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K250" s="2"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>216</v>
       </c>
@@ -6411,7 +6671,7 @@
         <v>3080</v>
       </c>
       <c r="D251" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E251" t="s">
         <v>8</v>
@@ -6422,8 +6682,9 @@
       <c r="G251" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K251" s="2"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>220</v>
       </c>
@@ -6434,7 +6695,7 @@
         <v>2955</v>
       </c>
       <c r="D252" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E252" t="s">
         <v>8</v>
@@ -6445,8 +6706,9 @@
       <c r="G252" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K252" s="2"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>224</v>
       </c>
@@ -6457,7 +6719,7 @@
         <v>2992</v>
       </c>
       <c r="D253" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
@@ -6468,8 +6730,9 @@
       <c r="G253" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K253" s="2"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>221</v>
       </c>
@@ -6480,7 +6743,7 @@
         <v>3264</v>
       </c>
       <c r="D254" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E254" t="s">
         <v>8</v>
@@ -6491,8 +6754,9 @@
       <c r="G254" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K254" s="2"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>221</v>
       </c>
@@ -6503,7 +6767,7 @@
         <v>3322</v>
       </c>
       <c r="D255" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -6514,8 +6778,9 @@
       <c r="G255" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K255" s="2"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>317</v>
       </c>
@@ -6526,7 +6791,7 @@
         <v>3072</v>
       </c>
       <c r="D256" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E256" t="s">
         <v>8</v>
@@ -6537,8 +6802,9 @@
       <c r="G256" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K256" s="2"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>115</v>
       </c>
@@ -6549,7 +6815,7 @@
         <v>2395</v>
       </c>
       <c r="D257" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E257" t="s">
         <v>8</v>
@@ -6560,8 +6826,9 @@
       <c r="G257" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K257" s="2"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>225</v>
       </c>
@@ -6572,7 +6839,7 @@
         <v>3765</v>
       </c>
       <c r="D258" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E258" t="s">
         <v>8</v>
@@ -6583,8 +6850,9 @@
       <c r="G258" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K258" s="2"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>225</v>
       </c>
@@ -6595,7 +6863,7 @@
         <v>3105</v>
       </c>
       <c r="D259" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E259" t="s">
         <v>8</v>
@@ -6606,8 +6874,9 @@
       <c r="G259" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K259" s="2"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>157.19999999999999</v>
       </c>
@@ -6618,7 +6887,7 @@
         <v>3256.1</v>
       </c>
       <c r="D260" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E260" t="s">
         <v>8</v>
@@ -6629,8 +6898,9 @@
       <c r="G260" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K260" s="2"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>158</v>
       </c>
@@ -6641,7 +6911,7 @@
         <v>3257</v>
       </c>
       <c r="D261" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E261" t="s">
         <v>8</v>
@@ -6652,8 +6922,9 @@
       <c r="G261" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K261" s="2"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>157.19999999999999</v>
       </c>
@@ -6664,7 +6935,7 @@
         <v>3723</v>
       </c>
       <c r="D262" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E262" t="s">
         <v>8</v>
@@ -6675,8 +6946,9 @@
       <c r="G262" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K262" s="2"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>201.5</v>
       </c>
@@ -6687,7 +6959,7 @@
         <v>2657.4</v>
       </c>
       <c r="D263" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E263" t="s">
         <v>8</v>
@@ -6698,8 +6970,9 @@
       <c r="G263" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K263" s="2"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>188.1</v>
       </c>
@@ -6710,7 +6983,7 @@
         <v>3062.3</v>
       </c>
       <c r="D264" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E264" t="s">
         <v>8</v>
@@ -6721,8 +6994,9 @@
       <c r="G264" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K264" s="2"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>188.1</v>
       </c>
@@ -6733,7 +7007,7 @@
         <v>2847.9</v>
       </c>
       <c r="D265" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E265" t="s">
         <v>8</v>
@@ -6744,8 +7018,9 @@
       <c r="G265" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K265" s="2"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>119.5</v>
       </c>
@@ -6756,7 +7031,7 @@
         <v>2256.6999999999998</v>
       </c>
       <c r="D266" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E266" t="s">
         <v>8</v>
@@ -6767,8 +7042,9 @@
       <c r="G266" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K266" s="2"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>231.7</v>
       </c>
@@ -6779,7 +7055,7 @@
         <v>2285.9</v>
       </c>
       <c r="D267" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E267" t="s">
         <v>8</v>
@@ -6790,8 +7066,9 @@
       <c r="G267" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K267" s="2"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>116.8</v>
       </c>
@@ -6802,7 +7079,7 @@
         <v>2274.1</v>
       </c>
       <c r="D268" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E268" t="s">
         <v>8</v>
@@ -6813,8 +7090,9 @@
       <c r="G268" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K268" s="2"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>159.07</v>
       </c>
@@ -6825,7 +7103,7 @@
         <v>478.65</v>
       </c>
       <c r="D269" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E269" t="s">
         <v>8</v>
@@ -6836,8 +7114,9 @@
       <c r="G269" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K269" s="2"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>154.88</v>
       </c>
@@ -6848,7 +7127,7 @@
         <v>464.64</v>
       </c>
       <c r="D270" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E270" t="s">
         <v>8</v>
@@ -6859,8 +7138,9 @@
       <c r="G270" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K270" s="2"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>154.02099999999999</v>
       </c>
@@ -6871,7 +7151,7 @@
         <v>458.37</v>
       </c>
       <c r="D271" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E271" t="s">
         <v>8</v>
@@ -6882,8 +7162,9 @@
       <c r="G271" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K271" s="2"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>207.4</v>
       </c>
@@ -6894,7 +7175,7 @@
         <v>3234.2</v>
       </c>
       <c r="D272" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E272" t="s">
         <v>8</v>
@@ -6905,8 +7186,9 @@
       <c r="G272" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K272" s="2"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>202</v>
       </c>
@@ -6917,7 +7199,7 @@
         <v>3541.2</v>
       </c>
       <c r="D273" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -6928,8 +7210,9 @@
       <c r="G273" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K273" s="2"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>207.4</v>
       </c>
@@ -6940,7 +7223,7 @@
         <v>3121.2</v>
       </c>
       <c r="D274" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E274" t="s">
         <v>8</v>
@@ -6951,8 +7234,9 @@
       <c r="G274" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K274" s="2"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>343.78</v>
       </c>
@@ -6963,7 +7247,7 @@
         <v>7172</v>
       </c>
       <c r="D275" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E275" t="s">
         <v>8</v>
@@ -6974,8 +7258,9 @@
       <c r="G275" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K275" s="2"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>316.62</v>
       </c>
@@ -6986,7 +7271,7 @@
         <v>7002</v>
       </c>
       <c r="D276" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E276" t="s">
         <v>8</v>
@@ -6997,8 +7282,9 @@
       <c r="G276" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K276" s="2"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>341.31</v>
       </c>
@@ -7009,7 +7295,7 @@
         <v>7287</v>
       </c>
       <c r="D277" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E277" t="s">
         <v>8</v>
@@ -7020,8 +7306,9 @@
       <c r="G277" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K277" s="2"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>125.05</v>
       </c>
@@ -7032,7 +7319,7 @@
         <v>3195.5</v>
       </c>
       <c r="D278" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E278" t="s">
         <v>8</v>
@@ -7043,8 +7330,9 @@
       <c r="G278" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K278" s="2"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>127.2</v>
       </c>
@@ -7055,7 +7343,7 @@
         <v>3189.6</v>
       </c>
       <c r="D279" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E279" t="s">
         <v>8</v>
@@ -7066,8 +7354,9 @@
       <c r="G279" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K279" s="2"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>124.6</v>
       </c>
@@ -7078,7 +7367,7 @@
         <v>3307.2</v>
       </c>
       <c r="D280" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E280" t="s">
         <v>8</v>
@@ -7089,8 +7378,9 @@
       <c r="G280" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K280" s="2"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>284.7</v>
       </c>
@@ -7101,7 +7391,7 @@
         <v>2937.5</v>
       </c>
       <c r="D281" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E281" t="s">
         <v>57</v>
@@ -7112,8 +7402,9 @@
       <c r="G281" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K281" s="2"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>298.5</v>
       </c>
@@ -7124,7 +7415,7 @@
         <v>2898</v>
       </c>
       <c r="D282" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E282" t="s">
         <v>57</v>
@@ -7135,8 +7426,9 @@
       <c r="G282" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K282" s="2"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>284.8</v>
       </c>
@@ -7147,7 +7439,7 @@
         <v>2957.4</v>
       </c>
       <c r="D283" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E283" t="s">
         <v>57</v>
@@ -7158,8 +7450,9 @@
       <c r="G283" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K283" s="2"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>216</v>
       </c>
@@ -7170,7 +7463,7 @@
         <v>3009</v>
       </c>
       <c r="D284" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E284" t="s">
         <v>8</v>
@@ -7181,8 +7474,9 @@
       <c r="G284" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K284" s="2"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>109</v>
       </c>
@@ -7193,7 +7487,7 @@
         <v>2990</v>
       </c>
       <c r="D285" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E285" t="s">
         <v>8</v>
@@ -7204,8 +7498,9 @@
       <c r="G285" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K285" s="2"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>233</v>
       </c>
@@ -7216,7 +7511,7 @@
         <v>3066</v>
       </c>
       <c r="D286" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E286" t="s">
         <v>8</v>
@@ -7227,8 +7522,9 @@
       <c r="G286" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K286" s="2"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>137</v>
       </c>
@@ -7239,7 +7535,7 @@
         <v>3152</v>
       </c>
       <c r="D287" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E287" t="s">
         <v>8</v>
@@ -7250,8 +7546,9 @@
       <c r="G287" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K287" s="2"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>145</v>
       </c>
@@ -7262,7 +7559,7 @@
         <v>3189</v>
       </c>
       <c r="D288" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E288" t="s">
         <v>8</v>
@@ -7271,10 +7568,11 @@
         <v>64</v>
       </c>
       <c r="G288" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K288" s="2"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>151</v>
       </c>
@@ -7285,7 +7583,7 @@
         <v>3241</v>
       </c>
       <c r="D289" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E289" t="s">
         <v>8</v>
@@ -7294,10 +7592,11 @@
         <v>64</v>
       </c>
       <c r="G289" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K289" s="2"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>223</v>
       </c>
@@ -7308,7 +7607,7 @@
         <v>3014</v>
       </c>
       <c r="D290" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E290" t="s">
         <v>8</v>
@@ -7319,8 +7618,9 @@
       <c r="G290" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K290" s="2"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>222</v>
       </c>
@@ -7331,7 +7631,7 @@
         <v>2784</v>
       </c>
       <c r="D291" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E291" t="s">
         <v>8</v>
@@ -7342,8 +7642,9 @@
       <c r="G291" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K291" s="2"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>229</v>
       </c>
@@ -7354,7 +7655,7 @@
         <v>2842</v>
       </c>
       <c r="D292" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E292" t="s">
         <v>8</v>
@@ -7365,8 +7666,9 @@
       <c r="G292" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K292" s="2"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>207</v>
       </c>
@@ -7377,7 +7679,7 @@
         <v>2925</v>
       </c>
       <c r="D293" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E293" t="s">
         <v>8</v>
@@ -7388,8 +7690,9 @@
       <c r="G293" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K293" s="2"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>205</v>
       </c>
@@ -7400,7 +7703,7 @@
         <v>2879</v>
       </c>
       <c r="D294" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E294" t="s">
         <v>8</v>
@@ -7411,8 +7714,9 @@
       <c r="G294" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K294" s="2"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>203</v>
       </c>
@@ -7423,7 +7727,7 @@
         <v>2921</v>
       </c>
       <c r="D295" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E295" t="s">
         <v>8</v>
@@ -7434,8 +7738,9 @@
       <c r="G295" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K295" s="2"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>198</v>
       </c>
@@ -7446,7 +7751,7 @@
         <v>2377</v>
       </c>
       <c r="D296" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E296" t="s">
         <v>8</v>
@@ -7457,8 +7762,9 @@
       <c r="G296" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K296" s="2"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>207</v>
       </c>
@@ -7469,7 +7775,7 @@
         <v>2373</v>
       </c>
       <c r="D297" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E297" t="s">
         <v>8</v>
@@ -7480,8 +7786,9 @@
       <c r="G297" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K297" s="2"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>197</v>
       </c>
@@ -7492,7 +7799,7 @@
         <v>2347</v>
       </c>
       <c r="D298" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E298" t="s">
         <v>8</v>
@@ -7503,8 +7810,9 @@
       <c r="G298" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K298" s="2"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>255</v>
       </c>
@@ -7515,7 +7823,7 @@
         <v>3485</v>
       </c>
       <c r="D299" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -7526,8 +7834,9 @@
       <c r="G299" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K299" s="2"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>256</v>
       </c>
@@ -7538,7 +7847,7 @@
         <v>3448</v>
       </c>
       <c r="D300" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E300" t="s">
         <v>8</v>
@@ -7549,8 +7858,9 @@
       <c r="G300" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K300" s="2"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>245</v>
       </c>
@@ -7561,7 +7871,7 @@
         <v>3395</v>
       </c>
       <c r="D301" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -7572,8 +7882,9 @@
       <c r="G301" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K301" s="2"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>130</v>
       </c>
@@ -7584,7 +7895,7 @@
         <v>2105</v>
       </c>
       <c r="D302" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E302" t="s">
         <v>8</v>
@@ -7595,8 +7906,9 @@
       <c r="G302" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K302" s="2"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>124</v>
       </c>
@@ -7607,7 +7919,7 @@
         <v>2176</v>
       </c>
       <c r="D303" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E303" t="s">
         <v>8</v>
@@ -7618,8 +7930,9 @@
       <c r="G303" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K303" s="2"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>126</v>
       </c>
@@ -7630,7 +7943,7 @@
         <v>2166</v>
       </c>
       <c r="D304" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E304" t="s">
         <v>8</v>
@@ -7641,8 +7954,9 @@
       <c r="G304" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K304" s="2"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>247</v>
       </c>
@@ -7653,7 +7967,7 @@
         <v>2830</v>
       </c>
       <c r="D305" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E305" t="s">
         <v>8</v>
@@ -7664,8 +7978,9 @@
       <c r="G305" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K305" s="2"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>232</v>
       </c>
@@ -7676,7 +7991,7 @@
         <v>2942</v>
       </c>
       <c r="D306" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E306" t="s">
         <v>8</v>
@@ -7687,8 +8002,9 @@
       <c r="G306" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K306" s="2"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>254</v>
       </c>
@@ -7699,7 +8015,7 @@
         <v>2950</v>
       </c>
       <c r="D307" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E307" t="s">
         <v>8</v>
@@ -7710,8 +8026,9 @@
       <c r="G307" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K307" s="2"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>189.4</v>
       </c>
@@ -7722,7 +8039,7 @@
         <v>3098.1</v>
       </c>
       <c r="D308" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E308" t="s">
         <v>8</v>
@@ -7733,8 +8050,9 @@
       <c r="G308" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K308" s="2"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>192.3</v>
       </c>
@@ -7745,7 +8063,7 @@
         <v>3116.2</v>
       </c>
       <c r="D309" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E309" t="s">
         <v>8</v>
@@ -7756,8 +8074,9 @@
       <c r="G309" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K309" s="2"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>214.7</v>
       </c>
@@ -7768,7 +8087,7 @@
         <v>3177.6</v>
       </c>
       <c r="D310" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E310" t="s">
         <v>8</v>
@@ -7779,8 +8098,9 @@
       <c r="G310" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K310" s="2"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>287</v>
       </c>
@@ -7791,7 +8111,7 @@
         <v>3749</v>
       </c>
       <c r="D311" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E311" t="s">
         <v>57</v>
@@ -7802,8 +8122,9 @@
       <c r="G311" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K311" s="2"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>276</v>
       </c>
@@ -7814,7 +8135,7 @@
         <v>3848</v>
       </c>
       <c r="D312" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E312" t="s">
         <v>57</v>
@@ -7825,8 +8146,9 @@
       <c r="G312" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K312" s="2"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>265</v>
       </c>
@@ -7837,7 +8159,7 @@
         <v>3749</v>
       </c>
       <c r="D313" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E313" t="s">
         <v>57</v>
@@ -7848,8 +8170,9 @@
       <c r="G313" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K313" s="2"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>260.5</v>
       </c>
@@ -7860,7 +8183,7 @@
         <v>2962.3</v>
       </c>
       <c r="D314" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E314" t="s">
         <v>8</v>
@@ -7871,8 +8194,9 @@
       <c r="G314" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K314" s="2"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>255.3</v>
       </c>
@@ -7883,7 +8207,7 @@
         <v>2755.3</v>
       </c>
       <c r="D315" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E315" t="s">
         <v>8</v>
@@ -7894,8 +8218,9 @@
       <c r="G315" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K315" s="2"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>249.4</v>
       </c>
@@ -7906,7 +8231,7 @@
         <v>2873.5</v>
       </c>
       <c r="D316" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E316" t="s">
         <v>8</v>
@@ -7917,8 +8242,9 @@
       <c r="G316" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K316" s="2"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>140.5</v>
       </c>
@@ -7929,7 +8255,7 @@
         <v>825.8</v>
       </c>
       <c r="D317" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E317" t="s">
         <v>8</v>
@@ -7940,8 +8266,9 @@
       <c r="G317" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K317" s="2"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>135.1</v>
       </c>
@@ -7952,7 +8279,7 @@
         <v>941.7</v>
       </c>
       <c r="D318" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E318" t="s">
         <v>8</v>
@@ -7963,8 +8290,9 @@
       <c r="G318" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K318" s="2"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>138.80000000000001</v>
       </c>
@@ -7975,7 +8303,7 @@
         <v>961.9</v>
       </c>
       <c r="D319" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
@@ -7986,8 +8314,9 @@
       <c r="G319" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K319" s="2"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>208.6</v>
       </c>
@@ -7998,7 +8327,7 @@
         <v>1038</v>
       </c>
       <c r="D320" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E320" t="s">
         <v>8</v>
@@ -8009,8 +8338,9 @@
       <c r="G320" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K320" s="2"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>201.5</v>
       </c>
@@ -8021,7 +8351,7 @@
         <v>1012</v>
       </c>
       <c r="D321" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E321" t="s">
         <v>8</v>
@@ -8032,8 +8362,9 @@
       <c r="G321" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K321" s="2"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>227.3</v>
       </c>
@@ -8044,7 +8375,7 @@
         <v>849.8</v>
       </c>
       <c r="D322" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E322" t="s">
         <v>8</v>
@@ -8055,8 +8386,9 @@
       <c r="G322" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K322" s="2"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>266.2</v>
       </c>
@@ -8067,7 +8399,7 @@
         <v>914.6</v>
       </c>
       <c r="D323" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E323" t="s">
         <v>8</v>
@@ -8078,8 +8410,9 @@
       <c r="G323" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K323" s="2"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>233.8</v>
       </c>
@@ -8090,7 +8423,7 @@
         <v>942.7</v>
       </c>
       <c r="D324" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E324" t="s">
         <v>8</v>
@@ -8101,8 +8434,9 @@
       <c r="G324" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K324" s="2"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>226.5</v>
       </c>
@@ -8113,7 +8447,7 @@
         <v>945.4</v>
       </c>
       <c r="D325" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E325" t="s">
         <v>8</v>
@@ -8124,8 +8458,9 @@
       <c r="G325" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K325" s="2"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>177.7</v>
       </c>
@@ -8136,7 +8471,7 @@
         <v>522.20000000000005</v>
       </c>
       <c r="D326" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E326" t="s">
         <v>8</v>
@@ -8147,8 +8482,9 @@
       <c r="G326" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K326" s="2"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>172.9</v>
       </c>
@@ -8159,7 +8495,7 @@
         <v>488.1</v>
       </c>
       <c r="D327" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E327" t="s">
         <v>8</v>
@@ -8170,8 +8506,9 @@
       <c r="G327" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K327" s="2"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>151.9</v>
       </c>
@@ -8182,7 +8519,7 @@
         <v>457.2</v>
       </c>
       <c r="D328" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E328" t="s">
         <v>8</v>
@@ -8193,8 +8530,9 @@
       <c r="G328" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K328" s="2"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>252.9</v>
       </c>
@@ -8205,7 +8543,7 @@
         <v>1019.6</v>
       </c>
       <c r="D329" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -8216,8 +8554,9 @@
       <c r="G329" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K329" s="2"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>154.4</v>
       </c>
@@ -8228,7 +8567,7 @@
         <v>744.2</v>
       </c>
       <c r="D330" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E330" t="s">
         <v>8</v>
@@ -8239,8 +8578,9 @@
       <c r="G330" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K330" s="2"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>150.9</v>
       </c>
@@ -8251,7 +8591,7 @@
         <v>838.2</v>
       </c>
       <c r="D331" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E331" t="s">
         <v>8</v>
@@ -8262,8 +8602,9 @@
       <c r="G331" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K331" s="2"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>123.83</v>
       </c>
@@ -8274,7 +8615,7 @@
         <v>627.45000000000005</v>
       </c>
       <c r="D332" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E332" t="s">
         <v>8</v>
@@ -8285,8 +8626,9 @@
       <c r="G332" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K332" s="2"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>129.1</v>
       </c>
@@ -8297,7 +8639,7 @@
         <v>530.78</v>
       </c>
       <c r="D333" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E333" t="s">
         <v>8</v>
@@ -8308,8 +8650,9 @@
       <c r="G333" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K333" s="2"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>125.76</v>
       </c>
@@ -8320,7 +8663,7 @@
         <v>847.57</v>
       </c>
       <c r="D334" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E334" t="s">
         <v>8</v>
@@ -8331,8 +8674,9 @@
       <c r="G334" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K334" s="2"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>115.8</v>
       </c>
@@ -8343,7 +8687,7 @@
         <v>1049</v>
       </c>
       <c r="D335" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E335" t="s">
         <v>8</v>
@@ -8354,8 +8698,9 @@
       <c r="G335" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K335" s="2"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>117.53</v>
       </c>
@@ -8366,7 +8711,7 @@
         <v>930.6</v>
       </c>
       <c r="D336" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E336" t="s">
         <v>8</v>
@@ -8377,8 +8722,9 @@
       <c r="G336" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K336" s="2"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>118.25</v>
       </c>
@@ -8389,7 +8735,7 @@
         <v>579.88</v>
       </c>
       <c r="D337" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E337" t="s">
         <v>8</v>
@@ -8400,8 +8746,9 @@
       <c r="G337" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K337" s="2"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>165.9</v>
       </c>
@@ -8412,7 +8759,7 @@
         <v>788.02</v>
       </c>
       <c r="D338" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E338" t="s">
         <v>8</v>
@@ -8423,8 +8770,9 @@
       <c r="G338" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K338" s="2"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>165.9</v>
       </c>
@@ -8435,7 +8783,7 @@
         <v>788.02</v>
       </c>
       <c r="D339" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E339" t="s">
         <v>8</v>
@@ -8446,8 +8794,9 @@
       <c r="G339" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K339" s="2"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>183.18</v>
       </c>
@@ -8458,7 +8807,7 @@
         <v>649.71</v>
       </c>
       <c r="D340" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E340" t="s">
         <v>8</v>
@@ -8469,8 +8818,9 @@
       <c r="G340" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K340" s="2"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>146.08000000000001</v>
       </c>
@@ -8481,7 +8831,7 @@
         <v>1007.64</v>
       </c>
       <c r="D341" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E341" t="s">
         <v>8</v>
@@ -8492,8 +8842,9 @@
       <c r="G341" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K341" s="2"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>155.94999999999999</v>
       </c>
@@ -8504,7 +8855,7 @@
         <v>988.87</v>
       </c>
       <c r="D342" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E342" t="s">
         <v>8</v>
@@ -8515,8 +8866,9 @@
       <c r="G342" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K342" s="2"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>188.33</v>
       </c>
@@ -8527,7 +8879,7 @@
         <v>1063.3800000000001</v>
       </c>
       <c r="D343" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E343" t="s">
         <v>8</v>
@@ -8538,8 +8890,9 @@
       <c r="G343" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K343" s="2"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>116.69</v>
       </c>
@@ -8550,7 +8903,7 @@
         <v>976.39</v>
       </c>
       <c r="D344" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -8561,8 +8914,9 @@
       <c r="G344" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K344" s="2"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>110.1</v>
       </c>
@@ -8573,7 +8927,7 @@
         <v>964.94</v>
       </c>
       <c r="D345" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
@@ -8584,8 +8938,9 @@
       <c r="G345" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K345" s="2"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>121.65</v>
       </c>
@@ -8596,7 +8951,7 @@
         <v>976.5</v>
       </c>
       <c r="D346" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
@@ -8607,8 +8962,9 @@
       <c r="G346" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K346" s="2"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>130.91</v>
       </c>
@@ -8619,7 +8975,7 @@
         <v>896.82</v>
       </c>
       <c r="D347" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E347" t="s">
         <v>8</v>
@@ -8630,8 +8986,9 @@
       <c r="G347" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K347" s="2"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>132.33000000000001</v>
       </c>
@@ -8642,7 +8999,7 @@
         <v>894.91</v>
       </c>
       <c r="D348" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E348" t="s">
         <v>8</v>
@@ -8653,8 +9010,9 @@
       <c r="G348" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K348" s="2"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>128.97</v>
       </c>
@@ -8665,7 +9023,7 @@
         <v>893.44</v>
       </c>
       <c r="D349" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E349" t="s">
         <v>8</v>
@@ -8676,8 +9034,9 @@
       <c r="G349" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K349" s="2"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>125.7</v>
       </c>
@@ -8688,7 +9047,7 @@
         <v>866.5</v>
       </c>
       <c r="D350" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E350" t="s">
         <v>8</v>
@@ -8699,8 +9058,9 @@
       <c r="G350" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K350" s="2"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>122</v>
       </c>
@@ -8711,7 +9071,7 @@
         <v>842.6</v>
       </c>
       <c r="D351" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E351" t="s">
         <v>8</v>
@@ -8722,8 +9082,9 @@
       <c r="G351" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K351" s="2"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>118.8</v>
       </c>
@@ -8734,7 +9095,7 @@
         <v>932</v>
       </c>
       <c r="D352" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E352" t="s">
         <v>8</v>
@@ -8745,8 +9106,9 @@
       <c r="G352" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K352" s="2"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>120.31</v>
       </c>
@@ -8757,7 +9119,7 @@
         <v>761.98</v>
       </c>
       <c r="D353" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E353" t="s">
         <v>8</v>
@@ -8768,8 +9130,9 @@
       <c r="G353" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K353" s="2"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>228.86</v>
       </c>
@@ -8780,7 +9143,7 @@
         <v>923.18</v>
       </c>
       <c r="D354" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E354" t="s">
         <v>8</v>
@@ -8791,8 +9154,9 @@
       <c r="G354" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K354" s="2"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>120.45</v>
       </c>
@@ -8803,7 +9167,7 @@
         <v>904.54</v>
       </c>
       <c r="D355" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E355" t="s">
         <v>8</v>
@@ -8814,8 +9178,9 @@
       <c r="G355" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K355" s="2"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>274</v>
       </c>
@@ -8826,7 +9191,7 @@
         <v>972</v>
       </c>
       <c r="D356" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E356" t="s">
         <v>8</v>
@@ -8837,8 +9202,9 @@
       <c r="G356" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K356" s="2"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>249</v>
       </c>
@@ -8849,7 +9215,7 @@
         <v>990</v>
       </c>
       <c r="D357" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E357" t="s">
         <v>8</v>
@@ -8860,8 +9226,9 @@
       <c r="G357" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K357" s="2"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>245</v>
       </c>
@@ -8872,7 +9239,7 @@
         <v>979</v>
       </c>
       <c r="D358" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E358" t="s">
         <v>8</v>
@@ -8883,8 +9250,9 @@
       <c r="G358" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K358" s="2"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>219</v>
       </c>
@@ -8895,7 +9263,7 @@
         <v>760</v>
       </c>
       <c r="D359" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E359" t="s">
         <v>8</v>
@@ -8906,8 +9274,9 @@
       <c r="G359" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K359" s="2"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>220</v>
       </c>
@@ -8918,7 +9287,7 @@
         <v>775</v>
       </c>
       <c r="D360" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E360" t="s">
         <v>8</v>
@@ -8929,8 +9298,9 @@
       <c r="G360" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K360" s="2"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>215</v>
       </c>
@@ -8941,7 +9311,7 @@
         <v>860</v>
       </c>
       <c r="D361" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E361" t="s">
         <v>8</v>
@@ -8952,8 +9322,9 @@
       <c r="G361" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K361" s="2"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>104</v>
       </c>
@@ -8964,7 +9335,7 @@
         <v>840</v>
       </c>
       <c r="D362" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E362" t="s">
         <v>8</v>
@@ -8975,8 +9346,9 @@
       <c r="G362" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K362" s="2"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>216</v>
       </c>
@@ -8987,7 +9359,7 @@
         <v>864</v>
       </c>
       <c r="D363" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E363" t="s">
         <v>8</v>
@@ -8998,8 +9370,9 @@
       <c r="G363" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K363" s="2"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>106</v>
       </c>
@@ -9010,7 +9383,7 @@
         <v>950</v>
       </c>
       <c r="D364" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E364" t="s">
         <v>8</v>
@@ -9021,8 +9394,9 @@
       <c r="G364" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K364" s="2"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>225</v>
       </c>
@@ -9033,7 +9407,7 @@
         <v>895</v>
       </c>
       <c r="D365" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E365" t="s">
         <v>8</v>
@@ -9044,8 +9418,9 @@
       <c r="G365" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K365" s="2"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>215</v>
       </c>
@@ -9056,7 +9431,7 @@
         <v>955</v>
       </c>
       <c r="D366" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E366" t="s">
         <v>8</v>
@@ -9067,8 +9442,9 @@
       <c r="G366" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K366" s="2"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>215</v>
       </c>
@@ -9079,7 +9455,7 @@
         <v>950</v>
       </c>
       <c r="D367" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E367" t="s">
         <v>8</v>
@@ -9090,8 +9466,9 @@
       <c r="G367" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K367" s="2"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>129</v>
       </c>
@@ -9102,7 +9479,7 @@
         <v>891</v>
       </c>
       <c r="D368" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E368" t="s">
         <v>8</v>
@@ -9113,8 +9490,9 @@
       <c r="G368" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K368" s="2"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>130</v>
       </c>
@@ -9125,7 +9503,7 @@
         <v>764.9</v>
       </c>
       <c r="D369" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E369" t="s">
         <v>8</v>
@@ -9136,8 +9514,9 @@
       <c r="G369" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K369" s="2"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>128.9</v>
       </c>
@@ -9148,7 +9527,7 @@
         <v>890</v>
       </c>
       <c r="D370" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E370" t="s">
         <v>8</v>
@@ -9159,8 +9538,9 @@
       <c r="G370" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K370" s="2"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>164.1</v>
       </c>
@@ -9171,7 +9551,7 @@
         <v>823.6</v>
       </c>
       <c r="D371" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E371" t="s">
         <v>8</v>
@@ -9182,8 +9562,9 @@
       <c r="G371" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K371" s="2"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>169.8</v>
       </c>
@@ -9194,7 +9575,7 @@
         <v>944.1</v>
       </c>
       <c r="D372" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E372" t="s">
         <v>8</v>
@@ -9205,8 +9586,9 @@
       <c r="G372" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K372" s="2"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>172.7</v>
       </c>
@@ -9217,7 +9599,7 @@
         <v>988.3</v>
       </c>
       <c r="D373" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E373" t="s">
         <v>8</v>
@@ -9228,8 +9610,9 @@
       <c r="G373" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K373" s="2"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>127.2</v>
       </c>
@@ -9240,7 +9623,7 @@
         <v>879.5</v>
       </c>
       <c r="D374" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E374" t="s">
         <v>8</v>
@@ -9251,8 +9634,9 @@
       <c r="G374" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K374" s="2"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>115.2</v>
       </c>
@@ -9263,7 +9647,7 @@
         <v>890.4</v>
       </c>
       <c r="D375" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E375" t="s">
         <v>8</v>
@@ -9274,8 +9658,9 @@
       <c r="G375" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K375" s="2"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>115.3</v>
       </c>
@@ -9286,7 +9671,7 @@
         <v>936.8</v>
       </c>
       <c r="D376" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E376" t="s">
         <v>8</v>
@@ -9297,8 +9682,9 @@
       <c r="G376" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K376" s="2"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>146.41</v>
       </c>
@@ -9309,7 +9695,7 @@
         <v>440.87</v>
       </c>
       <c r="D377" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E377" t="s">
         <v>8</v>
@@ -9320,8 +9706,9 @@
       <c r="G377" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K377" s="2"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>147.37</v>
       </c>
@@ -9332,7 +9719,7 @@
         <v>442.11</v>
       </c>
       <c r="D378" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E378" t="s">
         <v>8</v>
@@ -9343,8 +9730,9 @@
       <c r="G378" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K378" s="2"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>146.83000000000001</v>
       </c>
@@ -9355,7 +9743,7 @@
         <v>440.48</v>
       </c>
       <c r="D379" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E379" t="s">
         <v>8</v>
@@ -9366,8 +9754,9 @@
       <c r="G379" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K379" s="2"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>94.3</v>
       </c>
@@ -9378,7 +9767,7 @@
         <v>945.2</v>
       </c>
       <c r="D380" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E380" t="s">
         <v>8</v>
@@ -9389,8 +9778,9 @@
       <c r="G380" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K380" s="2"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>99.6</v>
       </c>
@@ -9401,7 +9791,7 @@
         <v>891.4</v>
       </c>
       <c r="D381" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E381" t="s">
         <v>8</v>
@@ -9412,8 +9802,9 @@
       <c r="G381" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K381" s="2"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>191.2</v>
       </c>
@@ -9424,7 +9815,7 @@
         <v>939.8</v>
       </c>
       <c r="D382" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E382" t="s">
         <v>8</v>
@@ -9435,8 +9826,9 @@
       <c r="G382" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K382" s="2"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>115.7</v>
       </c>
@@ -9447,7 +9839,7 @@
         <v>765.6</v>
       </c>
       <c r="D383" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E383" t="s">
         <v>8</v>
@@ -9458,8 +9850,9 @@
       <c r="G383" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K383" s="2"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>116.8</v>
       </c>
@@ -9470,7 +9863,7 @@
         <v>917.5</v>
       </c>
       <c r="D384" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E384" t="s">
         <v>8</v>
@@ -9481,8 +9874,9 @@
       <c r="G384" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K384" s="2"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>114.8</v>
       </c>
@@ -9493,7 +9887,7 @@
         <v>1024.3</v>
       </c>
       <c r="D385" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E385" t="s">
         <v>8</v>
@@ -9504,8 +9898,9 @@
       <c r="G385" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K385" s="2"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>253.5</v>
       </c>
@@ -9516,7 +9911,7 @@
         <v>746.7</v>
       </c>
       <c r="D386" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E386" t="s">
         <v>57</v>
@@ -9527,8 +9922,9 @@
       <c r="G386" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K386" s="2"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>230.8</v>
       </c>
@@ -9539,7 +9935,7 @@
         <v>723.9</v>
       </c>
       <c r="D387" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E387" t="s">
         <v>57</v>
@@ -9550,8 +9946,9 @@
       <c r="G387" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K387" s="2"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>238.3</v>
       </c>
@@ -9562,7 +9959,7 @@
         <v>777.1</v>
       </c>
       <c r="D388" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E388" t="s">
         <v>57</v>
@@ -9573,8 +9970,9 @@
       <c r="G388" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K388" s="2"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>120</v>
       </c>
@@ -9585,7 +9983,7 @@
         <v>733</v>
       </c>
       <c r="D389" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E389" t="s">
         <v>8</v>
@@ -9596,8 +9994,9 @@
       <c r="G389" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K389" s="2"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>102</v>
       </c>
@@ -9608,7 +10007,7 @@
         <v>715</v>
       </c>
       <c r="D390" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E390" t="s">
         <v>8</v>
@@ -9619,8 +10018,9 @@
       <c r="G390" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K390" s="2"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>117</v>
       </c>
@@ -9631,7 +10031,7 @@
         <v>702</v>
       </c>
       <c r="D391" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E391" t="s">
         <v>8</v>
@@ -9642,8 +10042,9 @@
       <c r="G391" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K391" s="2"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>115</v>
       </c>
@@ -9654,7 +10055,7 @@
         <v>1037</v>
       </c>
       <c r="D392" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E392" t="s">
         <v>8</v>
@@ -9665,8 +10066,9 @@
       <c r="G392" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K392" s="2"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>123</v>
       </c>
@@ -9677,7 +10079,7 @@
         <v>973</v>
       </c>
       <c r="D393" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E393" t="s">
         <v>8</v>
@@ -9686,10 +10088,11 @@
         <v>64</v>
       </c>
       <c r="G393" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K393" s="2"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>118</v>
       </c>
@@ -9700,7 +10103,7 @@
         <v>778</v>
       </c>
       <c r="D394" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E394" t="s">
         <v>8</v>
@@ -9709,10 +10112,11 @@
         <v>64</v>
       </c>
       <c r="G394" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K394" s="2"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>217</v>
       </c>
@@ -9723,7 +10127,7 @@
         <v>858</v>
       </c>
       <c r="D395" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E395" t="s">
         <v>8</v>
@@ -9734,8 +10138,9 @@
       <c r="G395" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K395" s="2"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>219</v>
       </c>
@@ -9746,7 +10151,7 @@
         <v>976</v>
       </c>
       <c r="D396" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E396" t="s">
         <v>8</v>
@@ -9757,8 +10162,9 @@
       <c r="G396" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K396" s="2"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>211</v>
       </c>
@@ -9769,7 +10175,7 @@
         <v>844</v>
       </c>
       <c r="D397" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E397" t="s">
         <v>8</v>
@@ -9780,8 +10186,9 @@
       <c r="G397" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K397" s="2"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>161</v>
       </c>
@@ -9792,7 +10199,7 @@
         <v>848</v>
       </c>
       <c r="D398" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E398" t="s">
         <v>8</v>
@@ -9803,8 +10210,9 @@
       <c r="G398" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K398" s="2"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>172</v>
       </c>
@@ -9815,7 +10223,7 @@
         <v>832</v>
       </c>
       <c r="D399" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E399" t="s">
         <v>8</v>
@@ -9826,8 +10234,9 @@
       <c r="G399" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K399" s="2"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>180</v>
       </c>
@@ -9838,7 +10247,7 @@
         <v>854</v>
       </c>
       <c r="D400" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E400" t="s">
         <v>8</v>
@@ -9849,8 +10258,9 @@
       <c r="G400" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K400" s="2"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>169</v>
       </c>
@@ -9861,7 +10271,7 @@
         <v>949</v>
       </c>
       <c r="D401" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E401" t="s">
         <v>8</v>
@@ -9872,8 +10282,9 @@
       <c r="G401" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K401" s="2"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>173</v>
       </c>
@@ -9884,7 +10295,7 @@
         <v>955</v>
       </c>
       <c r="D402" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E402" t="s">
         <v>8</v>
@@ -9895,8 +10306,9 @@
       <c r="G402" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K402" s="2"/>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>167</v>
       </c>
@@ -9907,7 +10319,7 @@
         <v>946</v>
       </c>
       <c r="D403" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E403" t="s">
         <v>8</v>
@@ -9918,8 +10330,9 @@
       <c r="G403" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K403" s="2"/>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>234</v>
       </c>
@@ -9930,7 +10343,7 @@
         <v>907</v>
       </c>
       <c r="D404" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E404" t="s">
         <v>8</v>
@@ -9941,8 +10354,9 @@
       <c r="G404" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K404" s="2"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>240.5</v>
       </c>
@@ -9953,7 +10367,7 @@
         <v>843.5</v>
       </c>
       <c r="D405" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E405" t="s">
         <v>8</v>
@@ -9964,8 +10378,9 @@
       <c r="G405" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K405" s="2"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>233</v>
       </c>
@@ -9976,7 +10391,7 @@
         <v>937</v>
       </c>
       <c r="D406" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E406" t="s">
         <v>8</v>
@@ -9987,8 +10402,9 @@
       <c r="G406" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K406" s="2"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>232</v>
       </c>
@@ -9999,7 +10415,7 @@
         <v>900</v>
       </c>
       <c r="D407" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E407" t="s">
         <v>8</v>
@@ -10010,8 +10426,9 @@
       <c r="G407" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K407" s="2"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>223</v>
       </c>
@@ -10022,7 +10439,7 @@
         <v>773</v>
       </c>
       <c r="D408" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E408" t="s">
         <v>8</v>
@@ -10033,8 +10450,9 @@
       <c r="G408" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K408" s="2"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>229</v>
       </c>
@@ -10045,7 +10463,7 @@
         <v>917</v>
       </c>
       <c r="D409" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E409" t="s">
         <v>8</v>
@@ -10056,8 +10474,9 @@
       <c r="G409" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K409" s="2"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>152</v>
       </c>
@@ -10068,7 +10487,7 @@
         <v>851</v>
       </c>
       <c r="D410" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E410" t="s">
         <v>8</v>
@@ -10079,8 +10498,9 @@
       <c r="G410" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K410" s="2"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>168</v>
       </c>
@@ -10091,7 +10511,7 @@
         <v>842</v>
       </c>
       <c r="D411" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E411" t="s">
         <v>8</v>
@@ -10102,8 +10522,9 @@
       <c r="G411" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K411" s="2"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>136</v>
       </c>
@@ -10114,7 +10535,7 @@
         <v>856</v>
       </c>
       <c r="D412" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E412" t="s">
         <v>8</v>
@@ -10125,8 +10546,9 @@
       <c r="G412" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K412" s="2"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>158.30000000000001</v>
       </c>
@@ -10137,7 +10559,7 @@
         <v>891.4</v>
       </c>
       <c r="D413" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E413" t="s">
         <v>8</v>
@@ -10148,8 +10570,9 @@
       <c r="G413" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K413" s="2"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>146.80000000000001</v>
       </c>
@@ -10160,7 +10583,7 @@
         <v>716.8</v>
       </c>
       <c r="D414" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E414" t="s">
         <v>8</v>
@@ -10171,8 +10594,9 @@
       <c r="G414" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K414" s="2"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>179.6</v>
       </c>
@@ -10183,7 +10607,7 @@
         <v>943.9</v>
       </c>
       <c r="D415" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E415" t="s">
         <v>8</v>
@@ -10194,8 +10618,9 @@
       <c r="G415" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K415" s="2"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>243</v>
       </c>
@@ -10206,7 +10631,7 @@
         <v>1257</v>
       </c>
       <c r="D416" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E416" t="s">
         <v>57</v>
@@ -10217,8 +10642,9 @@
       <c r="G416" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K416" s="2"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>243</v>
       </c>
@@ -10229,7 +10655,7 @@
         <v>1213</v>
       </c>
       <c r="D417" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E417" t="s">
         <v>57</v>
@@ -10240,8 +10666,9 @@
       <c r="G417" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K417" s="2"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>265</v>
       </c>
@@ -10252,7 +10679,7 @@
         <v>1323</v>
       </c>
       <c r="D418" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E418" t="s">
         <v>57</v>
@@ -10263,8 +10690,9 @@
       <c r="G418" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K418" s="2"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>151.19999999999999</v>
       </c>
@@ -10275,7 +10703,7 @@
         <v>836.6</v>
       </c>
       <c r="D419" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E419" t="s">
         <v>8</v>
@@ -10286,8 +10714,9 @@
       <c r="G419" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K419" s="2"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>147.19999999999999</v>
       </c>
@@ -10298,7 +10727,7 @@
         <v>908.7</v>
       </c>
       <c r="D420" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E420" t="s">
         <v>8</v>
@@ -10309,8 +10738,9 @@
       <c r="G420" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K420" s="2"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>153.69999999999999</v>
       </c>
@@ -10321,7 +10751,7 @@
         <v>843.7</v>
       </c>
       <c r="D421" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E421" t="s">
         <v>8</v>
@@ -10332,8 +10762,9 @@
       <c r="G421" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K421" s="2"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>140</v>
       </c>
@@ -10344,7 +10775,7 @@
         <v>2262.6999999999998</v>
       </c>
       <c r="D422" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E422" t="s">
         <v>8</v>
@@ -10355,8 +10786,9 @@
       <c r="G422" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K422" s="2"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>146.1</v>
       </c>
@@ -10367,7 +10799,7 @@
         <v>2315</v>
       </c>
       <c r="D423" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E423" t="s">
         <v>8</v>
@@ -10379,8 +10811,9 @@
         <v>12</v>
       </c>
       <c r="H423" s="1"/>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K423" s="2"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>145.19999999999999</v>
       </c>
@@ -10391,7 +10824,7 @@
         <v>2416.6999999999998</v>
       </c>
       <c r="D424" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E424" t="s">
         <v>8</v>
@@ -10402,8 +10835,9 @@
       <c r="G424" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K424" s="2"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>118.2</v>
       </c>
@@ -10414,7 +10848,7 @@
         <v>2943</v>
       </c>
       <c r="D425" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E425" t="s">
         <v>8</v>
@@ -10425,8 +10859,9 @@
       <c r="G425" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K425" s="2"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>119.8</v>
       </c>
@@ -10437,7 +10872,7 @@
         <v>2489</v>
       </c>
       <c r="D426" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E426" t="s">
         <v>8</v>
@@ -10448,8 +10883,9 @@
       <c r="G426" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K426" s="2"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>124.4</v>
       </c>
@@ -10460,7 +10896,7 @@
         <v>1953</v>
       </c>
       <c r="D427" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E427" t="s">
         <v>8</v>
@@ -10471,8 +10907,9 @@
       <c r="G427" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K427" s="2"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>270</v>
       </c>
@@ -10483,7 +10920,7 @@
         <v>2366.6999999999998</v>
       </c>
       <c r="D428" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E428" t="s">
         <v>8</v>
@@ -10494,8 +10931,9 @@
       <c r="G428" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K428" s="2"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>285.2</v>
       </c>
@@ -10506,7 +10944,7 @@
         <v>2293.6999999999998</v>
       </c>
       <c r="D429" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E429" t="s">
         <v>8</v>
@@ -10517,8 +10955,9 @@
       <c r="G429" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K429" s="2"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>316.7</v>
       </c>
@@ -10529,7 +10968,7 @@
         <v>2245</v>
       </c>
       <c r="D430" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E430" t="s">
         <v>8</v>
@@ -10540,8 +10979,9 @@
       <c r="G430" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K430" s="2"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>396.31</v>
       </c>
@@ -10552,7 +10992,7 @@
         <v>2589.86</v>
       </c>
       <c r="D431" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E431" t="s">
         <v>8</v>
@@ -10563,8 +11003,9 @@
       <c r="G431" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K431" s="2"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>252.18</v>
       </c>
@@ -10575,7 +11016,7 @@
         <v>2115.7600000000002</v>
       </c>
       <c r="D432" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E432" t="s">
         <v>8</v>
@@ -10586,8 +11027,9 @@
       <c r="G432" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K432" s="2"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>278.87</v>
       </c>
@@ -10598,7 +11040,7 @@
         <v>2170.88</v>
       </c>
       <c r="D433" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E433" t="s">
         <v>8</v>
@@ -10609,8 +11051,9 @@
       <c r="G433" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K433" s="2"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>134.1</v>
       </c>
@@ -10621,7 +11064,7 @@
         <v>3811.9</v>
       </c>
       <c r="D434" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E434" t="s">
         <v>8</v>
@@ -10632,8 +11075,9 @@
       <c r="G434" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K434" s="2"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>126.7</v>
       </c>
@@ -10644,7 +11088,7 @@
         <v>2309.5</v>
       </c>
       <c r="D435" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E435" t="s">
         <v>8</v>
@@ -10655,8 +11099,9 @@
       <c r="G435" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K435" s="2"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>125.7</v>
       </c>
@@ -10667,7 +11112,7 @@
         <v>2312.4</v>
       </c>
       <c r="D436" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E436" t="s">
         <v>8</v>
@@ -10678,8 +11123,9 @@
       <c r="G436" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K436" s="2"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>118.37</v>
       </c>
@@ -10690,7 +11136,7 @@
         <v>1908.4</v>
       </c>
       <c r="D437" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E437" t="s">
         <v>8</v>
@@ -10701,8 +11147,9 @@
       <c r="G437" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K437" s="2"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>124.08</v>
       </c>
@@ -10713,7 +11160,7 @@
         <v>2597.3000000000002</v>
       </c>
       <c r="D438" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E438" t="s">
         <v>8</v>
@@ -10724,8 +11171,9 @@
       <c r="G438" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K438" s="2"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>125.01</v>
       </c>
@@ -10736,7 +11184,7 @@
         <v>2150.9</v>
       </c>
       <c r="D439" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E439" t="s">
         <v>8</v>
@@ -10747,8 +11195,9 @@
       <c r="G439" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K439" s="2"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>183.13</v>
       </c>
@@ -10759,7 +11208,7 @@
         <v>1223.9000000000001</v>
       </c>
       <c r="D440" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E440" t="s">
         <v>8</v>
@@ -10770,8 +11219,9 @@
       <c r="G440" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K440" s="2"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>183.18</v>
       </c>
@@ -10782,7 +11232,7 @@
         <v>1133.5999999999999</v>
       </c>
       <c r="D441" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E441" t="s">
         <v>8</v>
@@ -10793,8 +11243,9 @@
       <c r="G441" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K441" s="2"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>200.46</v>
       </c>
@@ -10805,7 +11256,7 @@
         <v>1099.0999999999999</v>
       </c>
       <c r="D442" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E442" t="s">
         <v>8</v>
@@ -10816,8 +11267,9 @@
       <c r="G442" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K442" s="2"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>186.87</v>
       </c>
@@ -10828,7 +11280,7 @@
         <v>2261.5100000000002</v>
       </c>
       <c r="D443" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E443" t="s">
         <v>8</v>
@@ -10839,8 +11291,9 @@
       <c r="G443" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K443" s="2"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>177.49</v>
       </c>
@@ -10851,7 +11304,7 @@
         <v>2094.6</v>
       </c>
       <c r="D444" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E444" t="s">
         <v>8</v>
@@ -10862,8 +11315,9 @@
       <c r="G444" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K444" s="2"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>185.23599999999999</v>
       </c>
@@ -10874,7 +11328,7 @@
         <v>2111.42</v>
       </c>
       <c r="D445" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E445" t="s">
         <v>8</v>
@@ -10885,8 +11339,9 @@
       <c r="G445" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K445" s="2"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>137.21</v>
       </c>
@@ -10897,7 +11352,7 @@
         <v>2089.1</v>
       </c>
       <c r="D446" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E446" t="s">
         <v>8</v>
@@ -10908,8 +11363,9 @@
       <c r="G446" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K446" s="2"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>132.1</v>
       </c>
@@ -10920,7 +11376,7 @@
         <v>2086.9</v>
       </c>
       <c r="D447" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E447" t="s">
         <v>8</v>
@@ -10931,8 +11387,9 @@
       <c r="G447" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K447" s="2"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>147.86000000000001</v>
       </c>
@@ -10943,7 +11400,7 @@
         <v>2071.1999999999998</v>
       </c>
       <c r="D448" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E448" t="s">
         <v>8</v>
@@ -10954,8 +11411,9 @@
       <c r="G448" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K448" s="2"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>301.45999999999998</v>
       </c>
@@ -10966,7 +11424,7 @@
         <v>2077.3200000000002</v>
       </c>
       <c r="D449" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E449" t="s">
         <v>8</v>
@@ -10977,8 +11435,9 @@
       <c r="G449" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K449" s="2"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>297.63</v>
       </c>
@@ -10989,7 +11448,7 @@
         <v>2092.16</v>
       </c>
       <c r="D450" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E450" t="s">
         <v>8</v>
@@ -11000,8 +11459,9 @@
       <c r="G450" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K450" s="2"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>288.56</v>
       </c>
@@ -11012,7 +11472,7 @@
         <v>2129.64</v>
       </c>
       <c r="D451" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E451" t="s">
         <v>8</v>
@@ -11023,8 +11483,9 @@
       <c r="G451" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K451" s="2"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>127.5</v>
       </c>
@@ -11035,7 +11496,7 @@
         <v>1369.5</v>
       </c>
       <c r="D452" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E452" t="s">
         <v>8</v>
@@ -11046,8 +11507,9 @@
       <c r="G452" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K452" s="2"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>124.6</v>
       </c>
@@ -11058,7 +11520,7 @@
         <v>1231.0999999999999</v>
       </c>
       <c r="D453" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E453" t="s">
         <v>8</v>
@@ -11069,8 +11531,9 @@
       <c r="G453" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K453" s="2"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>121.7</v>
       </c>
@@ -11081,7 +11544,7 @@
         <v>1455</v>
       </c>
       <c r="D454" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E454" t="s">
         <v>8</v>
@@ -11092,8 +11555,9 @@
       <c r="G454" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K454" s="2"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>261.2</v>
       </c>
@@ -11104,7 +11568,7 @@
         <v>1180.17</v>
       </c>
       <c r="D455" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E455" t="s">
         <v>8</v>
@@ -11115,8 +11579,9 @@
       <c r="G455" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K455" s="2"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>353.85</v>
       </c>
@@ -11127,7 +11592,7 @@
         <v>3406.16</v>
       </c>
       <c r="D456" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E456" t="s">
         <v>8</v>
@@ -11138,8 +11603,9 @@
       <c r="G456" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K456" s="2"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>299.58</v>
       </c>
@@ -11150,7 +11616,7 @@
         <v>3214.4</v>
       </c>
       <c r="D457" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E457" t="s">
         <v>8</v>
@@ -11161,8 +11627,9 @@
       <c r="G457" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K457" s="2"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>202</v>
       </c>
@@ -11173,7 +11640,7 @@
         <v>1430</v>
       </c>
       <c r="D458" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E458" t="s">
         <v>8</v>
@@ -11184,8 +11651,9 @@
       <c r="G458" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K458" s="2"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>390</v>
       </c>
@@ -11196,7 +11664,7 @@
         <v>2137</v>
       </c>
       <c r="D459" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E459" t="s">
         <v>8</v>
@@ -11207,8 +11675,9 @@
       <c r="G459" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K459" s="2"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>272</v>
       </c>
@@ -11219,7 +11688,7 @@
         <v>1341</v>
       </c>
       <c r="D460" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E460" t="s">
         <v>8</v>
@@ -11230,8 +11699,9 @@
       <c r="G460" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K460" s="2"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>210</v>
       </c>
@@ -11242,7 +11712,7 @@
         <v>937</v>
       </c>
       <c r="D461" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E461" t="s">
         <v>8</v>
@@ -11253,8 +11723,9 @@
       <c r="G461" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K461" s="2"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>320</v>
       </c>
@@ -11265,7 +11736,7 @@
         <v>1260</v>
       </c>
       <c r="D462" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E462" t="s">
         <v>8</v>
@@ -11276,8 +11747,9 @@
       <c r="G462" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K462" s="2"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>205</v>
       </c>
@@ -11288,7 +11760,7 @@
         <v>1510</v>
       </c>
       <c r="D463" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E463" t="s">
         <v>8</v>
@@ -11299,8 +11771,9 @@
       <c r="G463" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K463" s="2"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>326</v>
       </c>
@@ -11311,7 +11784,7 @@
         <v>2285</v>
       </c>
       <c r="D464" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E464" t="s">
         <v>8</v>
@@ -11322,8 +11795,9 @@
       <c r="G464" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K464" s="2"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>326</v>
       </c>
@@ -11334,7 +11808,7 @@
         <v>2371</v>
       </c>
       <c r="D465" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E465" t="s">
         <v>8</v>
@@ -11345,8 +11819,9 @@
       <c r="G465" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K465" s="2"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>336</v>
       </c>
@@ -11357,7 +11832,7 @@
         <v>1008</v>
       </c>
       <c r="D466" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E466" t="s">
         <v>8</v>
@@ -11368,8 +11843,9 @@
       <c r="G466" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K466" s="2"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>235</v>
       </c>
@@ -11380,7 +11856,7 @@
         <v>2485</v>
       </c>
       <c r="D467" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E467" t="s">
         <v>8</v>
@@ -11391,8 +11867,9 @@
       <c r="G467" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K467" s="2"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>215</v>
       </c>
@@ -11403,7 +11880,7 @@
         <v>2465</v>
       </c>
       <c r="D468" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E468" t="s">
         <v>8</v>
@@ -11414,8 +11891,9 @@
       <c r="G468" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K468" s="2"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>215</v>
       </c>
@@ -11426,7 +11904,7 @@
         <v>2475</v>
       </c>
       <c r="D469" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E469" t="s">
         <v>8</v>
@@ -11437,8 +11915,9 @@
       <c r="G469" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K469" s="2"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>150</v>
       </c>
@@ -11449,7 +11928,7 @@
         <v>2529.5</v>
       </c>
       <c r="D470" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E470" t="s">
         <v>8</v>
@@ -11460,8 +11939,9 @@
       <c r="G470" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K470" s="2"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>184.5</v>
       </c>
@@ -11472,7 +11952,7 @@
         <v>2400</v>
       </c>
       <c r="D471" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E471" t="s">
         <v>8</v>
@@ -11483,8 +11963,9 @@
       <c r="G471" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K471" s="2"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>189</v>
       </c>
@@ -11495,7 +11976,7 @@
         <v>2504.1999999999998</v>
       </c>
       <c r="D472" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E472" t="s">
         <v>8</v>
@@ -11506,8 +11987,9 @@
       <c r="G472" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K472" s="2"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>194.8</v>
       </c>
@@ -11518,7 +12000,7 @@
         <v>3163.7</v>
       </c>
       <c r="D473" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E473" t="s">
         <v>8</v>
@@ -11529,8 +12011,9 @@
       <c r="G473" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K473" s="2"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>208.6</v>
       </c>
@@ -11541,7 +12024,7 @@
         <v>3210.1</v>
       </c>
       <c r="D474" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E474" t="s">
         <v>8</v>
@@ -11552,8 +12035,9 @@
       <c r="G474" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K474" s="2"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>188.7</v>
       </c>
@@ -11564,7 +12048,7 @@
         <v>3315.8</v>
       </c>
       <c r="D475" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E475" t="s">
         <v>8</v>
@@ -11575,8 +12059,9 @@
       <c r="G475" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K475" s="2"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>126.3</v>
       </c>
@@ -11587,7 +12072,7 @@
         <v>2382.5</v>
       </c>
       <c r="D476" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E476" t="s">
         <v>8</v>
@@ -11598,8 +12083,9 @@
       <c r="G476" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K476" s="2"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>129.19999999999999</v>
       </c>
@@ -11610,7 +12096,7 @@
         <v>2546.6999999999998</v>
       </c>
       <c r="D477" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E477" t="s">
         <v>8</v>
@@ -11621,8 +12107,9 @@
       <c r="G477" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K477" s="2"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>125.7</v>
       </c>
@@ -11633,7 +12120,7 @@
         <v>2320.4</v>
       </c>
       <c r="D478" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E478" t="s">
         <v>8</v>
@@ -11644,8 +12131,9 @@
       <c r="G478" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K478" s="2"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>170.11</v>
       </c>
@@ -11656,7 +12144,7 @@
         <v>505.36</v>
       </c>
       <c r="D479" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E479" t="s">
         <v>8</v>
@@ -11667,8 +12155,9 @@
       <c r="G479" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K479" s="2"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>164.76</v>
       </c>
@@ -11679,7 +12168,7 @@
         <v>494.28</v>
       </c>
       <c r="D480" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E480" t="s">
         <v>8</v>
@@ -11690,8 +12179,9 @@
       <c r="G480" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K480" s="2"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>159.62</v>
       </c>
@@ -11702,7 +12192,7 @@
         <v>475.41</v>
       </c>
       <c r="D481" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E481" t="s">
         <v>8</v>
@@ -11713,8 +12203,9 @@
       <c r="G481" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K481" s="2"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>115.8</v>
       </c>
@@ -11725,7 +12216,7 @@
         <v>772.9</v>
       </c>
       <c r="D482" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E482" t="s">
         <v>8</v>
@@ -11736,8 +12227,9 @@
       <c r="G482" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K482" s="2"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>115.8</v>
       </c>
@@ -11748,7 +12240,7 @@
         <v>697.5</v>
       </c>
       <c r="D483" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E483" t="s">
         <v>8</v>
@@ -11759,8 +12251,9 @@
       <c r="G483" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K483" s="2"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>115.8</v>
       </c>
@@ -11771,7 +12264,7 @@
         <v>681.3</v>
       </c>
       <c r="D484" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E484" t="s">
         <v>8</v>
@@ -11782,8 +12275,9 @@
       <c r="G484" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K484" s="2"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>366.31</v>
       </c>
@@ -11794,7 +12288,7 @@
         <v>693.46</v>
       </c>
       <c r="D485" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E485" t="s">
         <v>8</v>
@@ -11805,8 +12299,9 @@
       <c r="G485" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K485" s="2"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>411.15</v>
       </c>
@@ -11817,7 +12312,7 @@
         <v>844.72</v>
       </c>
       <c r="D486" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E486" t="s">
         <v>8</v>
@@ -11828,8 +12323,9 @@
       <c r="G486" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K486" s="2"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>185.13</v>
       </c>
@@ -11840,7 +12336,7 @@
         <v>709.3</v>
       </c>
       <c r="D487" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E487" t="s">
         <v>8</v>
@@ -11851,8 +12347,9 @@
       <c r="G487" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K487" s="2"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>125.6</v>
       </c>
@@ -11863,7 +12360,7 @@
         <v>1165.2</v>
       </c>
       <c r="D488" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E488" t="s">
         <v>8</v>
@@ -11874,8 +12371,9 @@
       <c r="G488" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K488" s="2"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>147.5</v>
       </c>
@@ -11886,7 +12384,7 @@
         <v>1427.3</v>
       </c>
       <c r="D489" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E489" t="s">
         <v>8</v>
@@ -11897,8 +12395,9 @@
       <c r="G489" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K489" s="2"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>124.8</v>
       </c>
@@ -11909,7 +12408,7 @@
         <v>1815.3</v>
       </c>
       <c r="D490" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E490" t="s">
         <v>8</v>
@@ -11920,8 +12419,9 @@
       <c r="G490" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K490" s="2"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>328.9</v>
       </c>
@@ -11932,7 +12432,7 @@
         <v>1576.9</v>
       </c>
       <c r="D491" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E491" t="s">
         <v>57</v>
@@ -11943,8 +12443,9 @@
       <c r="G491" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K491" s="2"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>288.89999999999998</v>
       </c>
@@ -11955,7 +12456,7 @@
         <v>1650.5</v>
       </c>
       <c r="D492" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E492" t="s">
         <v>57</v>
@@ -11966,8 +12467,9 @@
       <c r="G492" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K492" s="2"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>369.6</v>
       </c>
@@ -11978,7 +12480,7 @@
         <v>1595.3</v>
       </c>
       <c r="D493" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E493" t="s">
         <v>57</v>
@@ -11989,8 +12491,9 @@
       <c r="G493" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K493" s="2"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>115</v>
       </c>
@@ -12001,7 +12504,7 @@
         <v>685</v>
       </c>
       <c r="D494" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E494" t="s">
         <v>8</v>
@@ -12012,8 +12515,9 @@
       <c r="G494" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K494" s="2"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>115</v>
       </c>
@@ -12024,7 +12528,7 @@
         <v>681</v>
       </c>
       <c r="D495" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E495" t="s">
         <v>8</v>
@@ -12035,8 +12539,9 @@
       <c r="G495" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K495" s="2"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>110</v>
       </c>
@@ -12047,7 +12552,7 @@
         <v>724</v>
       </c>
       <c r="D496" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E496" t="s">
         <v>8</v>
@@ -12058,8 +12563,9 @@
       <c r="G496" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K496" s="2"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>126</v>
       </c>
@@ -12070,7 +12576,7 @@
         <v>1150</v>
       </c>
       <c r="D497" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E497" t="s">
         <v>8</v>
@@ -12081,8 +12587,9 @@
       <c r="G497" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K497" s="2"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>129</v>
       </c>
@@ -12093,7 +12600,7 @@
         <v>1672</v>
       </c>
       <c r="D498" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E498" t="s">
         <v>8</v>
@@ -12102,10 +12609,11 @@
         <v>64</v>
       </c>
       <c r="G498" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K498" s="2"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>109</v>
       </c>
@@ -12116,7 +12624,7 @@
         <v>1254</v>
       </c>
       <c r="D499" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E499" t="s">
         <v>8</v>
@@ -12125,10 +12633,11 @@
         <v>64</v>
       </c>
       <c r="G499" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K499" s="2"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>221</v>
       </c>
@@ -12139,7 +12648,7 @@
         <v>2114</v>
       </c>
       <c r="D500" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E500" t="s">
         <v>8</v>
@@ -12150,8 +12659,9 @@
       <c r="G500" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K500" s="2"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>223</v>
       </c>
@@ -12162,7 +12672,7 @@
         <v>2112</v>
       </c>
       <c r="D501" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E501" t="s">
         <v>8</v>
@@ -12173,8 +12683,9 @@
       <c r="G501" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K501" s="2"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>223</v>
       </c>
@@ -12185,7 +12696,7 @@
         <v>2120</v>
       </c>
       <c r="D502" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E502" t="s">
         <v>8</v>
@@ -12196,8 +12707,9 @@
       <c r="G502" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K502" s="2"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>202</v>
       </c>
@@ -12208,7 +12720,7 @@
         <v>1844</v>
       </c>
       <c r="D503" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E503" t="s">
         <v>8</v>
@@ -12219,8 +12731,9 @@
       <c r="G503" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K503" s="2"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>222</v>
       </c>
@@ -12231,7 +12744,7 @@
         <v>1520</v>
       </c>
       <c r="D504" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E504" t="s">
         <v>8</v>
@@ -12242,8 +12755,9 @@
       <c r="G504" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K504" s="2"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>235</v>
       </c>
@@ -12254,7 +12768,7 @@
         <v>1760</v>
       </c>
       <c r="D505" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E505" t="s">
         <v>8</v>
@@ -12265,8 +12779,9 @@
       <c r="G505" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K505" s="2"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>286</v>
       </c>
@@ -12277,7 +12792,7 @@
         <v>822</v>
       </c>
       <c r="D506" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E506" t="s">
         <v>8</v>
@@ -12288,8 +12803,9 @@
       <c r="G506" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K506" s="2"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>293</v>
       </c>
@@ -12300,7 +12816,7 @@
         <v>832</v>
       </c>
       <c r="D507" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E507" t="s">
         <v>8</v>
@@ -12311,8 +12827,9 @@
       <c r="G507" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K507" s="2"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>291</v>
       </c>
@@ -12323,7 +12840,7 @@
         <v>818</v>
       </c>
       <c r="D508" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E508" t="s">
         <v>8</v>
@@ -12334,8 +12851,9 @@
       <c r="G508" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K508" s="2"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>262</v>
       </c>
@@ -12346,7 +12864,7 @@
         <v>2229</v>
       </c>
       <c r="D509" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E509" t="s">
         <v>8</v>
@@ -12357,8 +12875,9 @@
       <c r="G509" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K509" s="2"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>272</v>
       </c>
@@ -12369,7 +12888,7 @@
         <v>2172</v>
       </c>
       <c r="D510" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E510" t="s">
         <v>8</v>
@@ -12380,8 +12899,9 @@
       <c r="G510" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K510" s="2"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>269</v>
       </c>
@@ -12392,7 +12912,7 @@
         <v>2157</v>
       </c>
       <c r="D511" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E511" t="s">
         <v>8</v>
@@ -12403,8 +12923,9 @@
       <c r="G511" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K511" s="2"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>275</v>
       </c>
@@ -12415,7 +12936,7 @@
         <v>1936</v>
       </c>
       <c r="D512" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E512" t="s">
         <v>8</v>
@@ -12426,8 +12947,9 @@
       <c r="G512" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K512" s="2"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>279</v>
       </c>
@@ -12438,7 +12960,7 @@
         <v>1956</v>
       </c>
       <c r="D513" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E513" t="s">
         <v>8</v>
@@ -12449,8 +12971,9 @@
       <c r="G513" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K513" s="2"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>267</v>
       </c>
@@ -12461,7 +12984,7 @@
         <v>2001</v>
       </c>
       <c r="D514" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E514" t="s">
         <v>8</v>
@@ -12472,8 +12995,9 @@
       <c r="G514" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K514" s="2"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>206</v>
       </c>
@@ -12484,7 +13008,7 @@
         <v>1866</v>
       </c>
       <c r="D515" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E515" t="s">
         <v>8</v>
@@ -12495,8 +13019,9 @@
       <c r="G515" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K515" s="2"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>215</v>
       </c>
@@ -12507,7 +13032,7 @@
         <v>1926</v>
       </c>
       <c r="D516" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E516" t="s">
         <v>8</v>
@@ -12518,8 +13043,9 @@
       <c r="G516" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K516" s="2"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>202</v>
       </c>
@@ -12530,7 +13056,7 @@
         <v>1837</v>
       </c>
       <c r="D517" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E517" t="s">
         <v>8</v>
@@ -12541,8 +13067,9 @@
       <c r="G517" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K517" s="2"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>128.30000000000001</v>
       </c>
@@ -12553,7 +13080,7 @@
         <v>2504.6999999999998</v>
       </c>
       <c r="D518" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E518" t="s">
         <v>8</v>
@@ -12564,8 +13091,9 @@
       <c r="G518" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K518" s="2"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>116.7</v>
       </c>
@@ -12576,7 +13104,7 @@
         <v>2467.3000000000002</v>
       </c>
       <c r="D519" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E519" t="s">
         <v>8</v>
@@ -12587,8 +13115,9 @@
       <c r="G519" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K519" s="2"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>119.1</v>
       </c>
@@ -12599,7 +13128,7 @@
         <v>2483.9</v>
       </c>
       <c r="D520" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E520" t="s">
         <v>8</v>
@@ -12610,8 +13139,9 @@
       <c r="G520" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K520" s="2"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>276</v>
       </c>
@@ -12622,7 +13152,7 @@
         <v>2800</v>
       </c>
       <c r="D521" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E521" t="s">
         <v>57</v>
@@ -12633,8 +13163,9 @@
       <c r="G521" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K521" s="2"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>287</v>
       </c>
@@ -12645,7 +13176,7 @@
         <v>2900</v>
       </c>
       <c r="D522" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E522" t="s">
         <v>57</v>
@@ -12656,8 +13187,9 @@
       <c r="G522" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K522" s="2"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>276</v>
       </c>
@@ -12668,7 +13200,7 @@
         <v>2855</v>
       </c>
       <c r="D523" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E523" t="s">
         <v>57</v>
@@ -12679,8 +13211,9 @@
       <c r="G523" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K523" s="2"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>253.7</v>
       </c>
@@ -12691,7 +13224,7 @@
         <v>1364.8</v>
       </c>
       <c r="D524" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E524" t="s">
         <v>8</v>
@@ -12702,8 +13235,9 @@
       <c r="G524" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K524" s="2"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>247.2</v>
       </c>
@@ -12714,7 +13248,7 @@
         <v>1368.7</v>
       </c>
       <c r="D525" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E525" t="s">
         <v>8</v>
@@ -12725,8 +13259,9 @@
       <c r="G525" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K525" s="2"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>242.1</v>
       </c>
@@ -12737,7 +13272,7 @@
         <v>1298.5</v>
       </c>
       <c r="D526" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E526" t="s">
         <v>8</v>
@@ -12748,6 +13283,7 @@
       <c r="G526" t="s">
         <v>87</v>
       </c>
+      <c r="K526" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
